--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_vdReijden.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_vdReijden.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karin en Bauke\Desktop\SEAwise_papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5753C8-6820-4BDA-A88C-8616E59FB565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -56,13 +55,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Elliot John Brown</author>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="R2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="S2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="T2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="U2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="V2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="W2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="X2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="Y2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -343,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="Z2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="AA2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="AB2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="AC2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -449,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="AD2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="AE2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="AF2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="AH2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -631,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="AI2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -655,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="AJ2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -679,7 +678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="AK2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="AL2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="AM2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -918,7 +917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="AN2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -951,7 +950,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="AO2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -976,7 +975,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="AP2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1002,7 +1001,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AQ2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1029,7 +1028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="AR2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1053,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="AS2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1077,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="AT2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="AU2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1127,7 +1126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="AV2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1151,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+    <comment ref="AW2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1175,7 +1174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+    <comment ref="AX2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1205,13 +1204,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Elliot John Brown</author>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1235,7 +1234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="R2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1280,7 +1279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="S2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1304,7 +1303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="T2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1329,7 +1328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="U2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="V2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1400,7 +1399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="W2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1424,7 +1423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="X2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1468,7 +1467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="Y2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1492,7 +1491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="Z2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1517,7 +1516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="AA2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1544,7 +1543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="AB2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1571,7 +1570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="AC2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1598,7 +1597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="AD2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1622,7 +1621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="AE2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1646,7 +1645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="AF2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1753,7 +1752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="AH2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1780,7 +1779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="AI2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1804,7 +1803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="AJ2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1828,7 +1827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="AK2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1854,7 +1853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="AL2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1886,7 +1885,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
+    <comment ref="AM2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2067,7 +2066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="AN2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2100,7 +2099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+    <comment ref="AO2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2126,7 +2125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
+    <comment ref="AP2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2153,7 +2152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="AQ2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2177,7 +2176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
+    <comment ref="AR2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2201,7 +2200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="AS2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2226,7 +2225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AT2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2251,7 +2250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AU2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2275,7 +2274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AV2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2299,7 +2298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
+    <comment ref="AW2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2329,7 +2328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5832" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5830" uniqueCount="1253">
   <si>
     <t>SearchID</t>
   </si>
@@ -6093,7 +6092,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6254,6 +6253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6275,7 +6275,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6302,14 +6301,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="DataExtraction"/>
       <sheetName val="Validation"/>
-      <sheetName val="Drop-down overview"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6594,13 +6589,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AV146" sqref="AV146"/>
+      <selection pane="bottomLeft" activeCell="R78" sqref="R78:R79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6635,70 +6630,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="22" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="20" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="21" t="s">
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="23" t="s">
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="17" t="s">
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="18" t="s">
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -15712,9 +15707,6 @@
       <c r="Q78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R78" s="11" t="s">
-        <v>84</v>
-      </c>
       <c r="S78" s="11" t="s">
         <v>35</v>
       </c>
@@ -15848,9 +15840,6 @@
       </c>
       <c r="Q79" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="R79" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="S79" s="11" t="s">
         <v>35</v>
@@ -23093,7 +23082,7 @@
       <c r="G141" s="14">
         <v>39</v>
       </c>
-      <c r="H141" s="24">
+      <c r="H141" s="17">
         <v>44654</v>
       </c>
       <c r="I141" s="14">
@@ -23218,7 +23207,7 @@
       <c r="G142" s="14">
         <v>39</v>
       </c>
-      <c r="H142" s="24">
+      <c r="H142" s="17">
         <v>44654</v>
       </c>
       <c r="I142" s="14">
@@ -27158,14 +27147,14 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH45 AH47:AH1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH45 AH47:AH1048576">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ45 AQ47:AQ1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ45 AQ47:AQ1048576">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q13 P141:P1048576 P14:P134 Q135:Q140" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI31:AJ45 AI3:AJ25 AI30 AI27:AJ27 AI26 AN3:AN45 AI28 AI29:AJ29 AR3:AS45 AI47:AJ1048576 AN47:AN1048576 AR47:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q13 P141:P1048576 P14:P134 Q135:Q140"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI31:AJ45 AI3:AJ25 AI30 AI27:AJ27 AI26 AN3:AN45 AI28 AI29:AJ29 AR3:AS45 AI47:AJ1048576 AN47:AN1048576 AR47:AS1048576">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -27175,109 +27164,109 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="18">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$AM$5:$AM$11</xm:f>
           </x14:formula1>
           <xm:sqref>AM20:AM45 AM47:AM1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$W$3:$W$16</xm:f>
           </x14:formula1>
           <xm:sqref>W20:W25 W32:W1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
           <xm:sqref>AG20:AG45 AG47:AG1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
           <xm:sqref>AK20:AK25 AK32:AK45 AK47:AK1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$AV$3:$AV$6</xm:f>
           </x14:formula1>
           <xm:sqref>AW20:AW45 AW47:AW1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$AU$3:$AU$15</xm:f>
           </x14:formula1>
           <xm:sqref>AV20:AV45 AV47:AV1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$AF$3:$AF$7</xm:f>
           </x14:formula1>
           <xm:sqref>AF3:AF118 AF135:AF1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000F000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
           <xm:sqref>R20:R134 R143:R1048576 R138:R140</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000014000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'C:\Users\kjova\Downloads\[DataExtractionForm_WP4_Dinesen.xlsx]Validation'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AF119:AF134</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000015000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/[DataExtractionForm_WP4_Eigaard.xlsx]Validation'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>R135:R137 R141:R142</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
           </x14:formula1>
           <xm:sqref>T20:T1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$U$3:$U$15</xm:f>
           </x14:formula1>
           <xm:sqref>U20:U1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$V$3:$V$13</xm:f>
           </x14:formula1>
           <xm:sqref>V20:V1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$X$3:$X$16</xm:f>
           </x14:formula1>
           <xm:sqref>X20:X1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000010000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$S$3:$S$16</xm:f>
           </x14:formula1>
           <xm:sqref>S20:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000011000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
           <xm:sqref>AA20:AA1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000012000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
           <xm:sqref>AB20:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000013000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
@@ -27290,7 +27279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX38"/>
   <sheetViews>
     <sheetView topLeftCell="AB10" workbookViewId="0">
@@ -27308,63 +27297,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="22" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="20" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="21" t="s">
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="23" t="s">
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="17" t="s">
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
       <c r="AT1" s="9" t="s">
         <v>104</v>
       </c>
@@ -28361,7 +28350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28399,51 +28388,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="20" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="21" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="23" t="s">
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="17" t="s">
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="18" t="s">
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
     </row>
     <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -29252,18 +29241,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29381,24 +29370,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_vdReijden.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_vdReijden.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9263D5D-C9D2-452D-B5B4-8FBCDBFC2BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867432C1-E2D9-4533-9EB0-35AFC878758C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -2330,7 +2330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5983" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5982" uniqueCount="1259">
   <si>
     <t>SearchID</t>
   </si>
@@ -6102,6 +6102,12 @@
   </si>
   <si>
     <t>Absence of fishing effort</t>
+  </si>
+  <si>
+    <t>Purification treatment</t>
+  </si>
+  <si>
+    <t>Macrofauna communities</t>
   </si>
 </sst>
 </file>
@@ -6595,44 +6601,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AX137" sqref="AX137"/>
+      <selection pane="bottomLeft" activeCell="AK180" sqref="AK180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="2.1796875" customWidth="1"/>
-    <col min="8" max="9" width="2.54296875" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="2.54296875" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" customWidth="1"/>
+    <col min="8" max="9" width="2.5703125" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="2.5703125" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="2.81640625" customWidth="1"/>
-    <col min="15" max="15" width="2.453125" customWidth="1"/>
-    <col min="16" max="16" width="2.81640625" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" customWidth="1"/>
-    <col min="19" max="19" width="18.1796875" customWidth="1"/>
-    <col min="24" max="25" width="32.7265625" customWidth="1"/>
-    <col min="34" max="35" width="17.7265625" customWidth="1"/>
-    <col min="36" max="36" width="18.7265625" customWidth="1"/>
-    <col min="37" max="37" width="19.1796875" customWidth="1"/>
-    <col min="38" max="38" width="17.7265625" customWidth="1"/>
-    <col min="39" max="39" width="14.26953125" customWidth="1"/>
-    <col min="40" max="40" width="15.81640625" customWidth="1"/>
-    <col min="41" max="41" width="15.81640625" style="12" customWidth="1"/>
-    <col min="42" max="42" width="15.453125" customWidth="1"/>
-    <col min="46" max="46" width="15.1796875" customWidth="1"/>
-    <col min="47" max="47" width="18.7265625" customWidth="1"/>
+    <col min="14" max="14" width="2.85546875" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
+    <col min="24" max="25" width="32.7109375" customWidth="1"/>
+    <col min="34" max="35" width="17.7109375" customWidth="1"/>
+    <col min="36" max="36" width="18.7109375" customWidth="1"/>
+    <col min="37" max="37" width="19.140625" customWidth="1"/>
+    <col min="38" max="38" width="17.7109375" customWidth="1"/>
+    <col min="39" max="39" width="14.28515625" customWidth="1"/>
+    <col min="40" max="40" width="15.85546875" customWidth="1"/>
+    <col min="41" max="41" width="15.85546875" style="12" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" customWidth="1"/>
+    <col min="47" max="47" width="18.7109375" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
@@ -6698,7 +6704,7 @@
       <c r="AW1" s="20"/>
       <c r="AX1" s="20"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -6850,7 +6856,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -6976,7 +6982,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>252</v>
       </c>
@@ -7051,7 +7057,7 @@
       <c r="AW4" s="12"/>
       <c r="AX4" s="12"/>
     </row>
-    <row r="5" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>257</v>
       </c>
@@ -7170,7 +7176,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>257</v>
       </c>
@@ -7289,7 +7295,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>257</v>
       </c>
@@ -7402,7 +7408,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>257</v>
       </c>
@@ -7515,7 +7521,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>257</v>
       </c>
@@ -7625,7 +7631,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>257</v>
       </c>
@@ -7744,7 +7750,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>263</v>
       </c>
@@ -7863,7 +7869,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>263</v>
       </c>
@@ -7988,7 +7994,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>269</v>
       </c>
@@ -8063,7 +8069,7 @@
       <c r="AW13" s="12"/>
       <c r="AX13" s="12"/>
     </row>
-    <row r="14" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>275</v>
       </c>
@@ -8176,7 +8182,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>275</v>
       </c>
@@ -8286,7 +8292,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>275</v>
       </c>
@@ -8407,7 +8413,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>281</v>
       </c>
@@ -8526,7 +8532,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>281</v>
       </c>
@@ -8650,7 +8656,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>287</v>
       </c>
@@ -8754,10 +8760,7 @@
         <v>163</v>
       </c>
       <c r="AO19" s="11" t="s">
-        <v>681</v>
-      </c>
-      <c r="AP19" s="11" t="s">
-        <v>689</v>
+        <v>1257</v>
       </c>
       <c r="AQ19" s="11" t="s">
         <v>167</v>
@@ -8781,7 +8784,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>287</v>
       </c>
@@ -8912,7 +8915,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>293</v>
       </c>
@@ -8965,7 +8968,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>300</v>
       </c>
@@ -9084,7 +9087,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="23" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>305</v>
       </c>
@@ -9206,7 +9209,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>311</v>
       </c>
@@ -9313,7 +9316,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>311</v>
       </c>
@@ -9429,7 +9432,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>311</v>
       </c>
@@ -9542,7 +9545,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>317</v>
       </c>
@@ -9667,7 +9670,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>317</v>
       </c>
@@ -9798,7 +9801,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>317</v>
       </c>
@@ -9920,7 +9923,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="30" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>317</v>
       </c>
@@ -10048,7 +10051,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>317</v>
       </c>
@@ -10173,7 +10176,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>317</v>
       </c>
@@ -10304,7 +10307,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>324</v>
       </c>
@@ -10424,7 +10427,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>329</v>
       </c>
@@ -10480,7 +10483,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>335</v>
       </c>
@@ -10611,7 +10614,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>335</v>
       </c>
@@ -10742,7 +10745,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>335</v>
       </c>
@@ -10873,7 +10876,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>340</v>
       </c>
@@ -11001,7 +11004,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>346</v>
       </c>
@@ -11045,7 +11048,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>351</v>
       </c>
@@ -11170,7 +11173,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>358</v>
       </c>
@@ -11295,7 +11298,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>358</v>
       </c>
@@ -11420,7 +11423,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>358</v>
       </c>
@@ -11545,7 +11548,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>363</v>
       </c>
@@ -11673,7 +11676,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>369</v>
       </c>
@@ -11804,7 +11807,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>376</v>
       </c>
@@ -11860,7 +11863,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>382</v>
       </c>
@@ -11997,7 +12000,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>388</v>
       </c>
@@ -12053,7 +12056,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>395</v>
       </c>
@@ -12181,7 +12184,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>401</v>
       </c>
@@ -12309,7 +12312,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>407</v>
       </c>
@@ -12440,7 +12443,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>413</v>
       </c>
@@ -12553,7 +12556,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>418</v>
       </c>
@@ -12678,7 +12681,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="54" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>425</v>
       </c>
@@ -12794,7 +12797,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="55" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>425</v>
       </c>
@@ -12922,7 +12925,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="56" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>425</v>
       </c>
@@ -13053,7 +13056,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="57" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>425</v>
       </c>
@@ -13184,7 +13187,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>431</v>
       </c>
@@ -13235,7 +13238,7 @@
       </c>
       <c r="AX58" s="12"/>
     </row>
-    <row r="59" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>437</v>
       </c>
@@ -13360,7 +13363,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="60" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>437</v>
       </c>
@@ -13482,7 +13485,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="61" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>437</v>
       </c>
@@ -13604,7 +13607,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>443</v>
       </c>
@@ -13735,7 +13738,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="63" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>449</v>
       </c>
@@ -13860,7 +13863,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="64" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>449</v>
       </c>
@@ -13985,7 +13988,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="65" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>455</v>
       </c>
@@ -14110,7 +14113,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="66" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>455</v>
       </c>
@@ -14232,7 +14235,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>455</v>
       </c>
@@ -14333,7 +14336,7 @@
         <v>153</v>
       </c>
       <c r="AL67" t="s">
-        <v>797</v>
+        <v>1258</v>
       </c>
       <c r="AM67" t="s">
         <v>235</v>
@@ -14360,7 +14363,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="68" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>460</v>
       </c>
@@ -14485,7 +14488,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="69" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>460</v>
       </c>
@@ -14610,7 +14613,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>460</v>
       </c>
@@ -14735,7 +14738,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="71" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>465</v>
       </c>
@@ -14863,7 +14866,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="72" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>465</v>
       </c>
@@ -14991,7 +14994,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>465</v>
       </c>
@@ -15122,7 +15125,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="74" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>471</v>
       </c>
@@ -15238,7 +15241,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>471</v>
       </c>
@@ -15360,7 +15363,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="76" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>477</v>
       </c>
@@ -15488,7 +15491,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="77" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>477</v>
       </c>
@@ -15616,7 +15619,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="78" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>477</v>
       </c>
@@ -15744,7 +15747,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>477</v>
       </c>
@@ -15872,7 +15875,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="80" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>483</v>
       </c>
@@ -16006,7 +16009,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="81" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>483</v>
       </c>
@@ -16140,7 +16143,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="82" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>488</v>
       </c>
@@ -16271,7 +16274,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="83" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>488</v>
       </c>
@@ -16405,7 +16408,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="84" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>493</v>
       </c>
@@ -16521,7 +16524,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="85" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>493</v>
       </c>
@@ -16637,7 +16640,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>493</v>
       </c>
@@ -16753,7 +16756,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>499</v>
       </c>
@@ -16875,7 +16878,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>504</v>
       </c>
@@ -16997,7 +17000,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="89" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>509</v>
       </c>
@@ -17128,7 +17131,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>509</v>
       </c>
@@ -17256,7 +17259,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>514</v>
       </c>
@@ -17378,7 +17381,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>519</v>
       </c>
@@ -17503,7 +17506,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>525</v>
       </c>
@@ -17619,7 +17622,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="94" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>531</v>
       </c>
@@ -17747,7 +17750,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="95" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>531</v>
       </c>
@@ -17872,7 +17875,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>538</v>
       </c>
@@ -18000,7 +18003,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>544</v>
       </c>
@@ -18128,7 +18131,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="98" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>549</v>
       </c>
@@ -18250,7 +18253,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>549</v>
       </c>
@@ -18372,7 +18375,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="100" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>554</v>
       </c>
@@ -18488,7 +18491,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="101" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>554</v>
       </c>
@@ -18607,7 +18610,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="102" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>554</v>
       </c>
@@ -18726,7 +18729,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>559</v>
       </c>
@@ -18854,7 +18857,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="104" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>565</v>
       </c>
@@ -18976,7 +18979,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>565</v>
       </c>
@@ -19099,7 +19102,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="106" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>565</v>
       </c>
@@ -19218,7 +19221,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="107" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>570</v>
       </c>
@@ -19346,7 +19349,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="108" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>570</v>
       </c>
@@ -19474,7 +19477,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="109" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>570</v>
       </c>
@@ -19599,7 +19602,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>570</v>
       </c>
@@ -19728,7 +19731,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="111" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>575</v>
       </c>
@@ -19841,7 +19844,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="112" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>575</v>
       </c>
@@ -19957,7 +19960,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="113" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>575</v>
       </c>
@@ -20073,7 +20076,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="114" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>575</v>
       </c>
@@ -20189,7 +20192,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="115" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>581</v>
       </c>
@@ -20308,7 +20311,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="116" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>581</v>
       </c>
@@ -20427,7 +20430,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="117" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>581</v>
       </c>
@@ -20546,7 +20549,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="118" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>581</v>
       </c>
@@ -20665,7 +20668,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="119" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>581</v>
       </c>
@@ -20784,7 +20787,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="120" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>581</v>
       </c>
@@ -20903,7 +20906,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>587</v>
       </c>
@@ -20958,7 +20961,7 @@
       <c r="AT121" s="12"/>
       <c r="AX121" s="12"/>
     </row>
-    <row r="122" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>997</v>
       </c>
@@ -21086,7 +21089,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="123" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>991</v>
       </c>
@@ -21211,7 +21214,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="124" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>986</v>
       </c>
@@ -21336,7 +21339,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="125" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>980</v>
       </c>
@@ -21458,7 +21461,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="126" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>980</v>
       </c>
@@ -21580,7 +21583,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="127" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>980</v>
       </c>
@@ -21702,7 +21705,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="128" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>974</v>
       </c>
@@ -21827,7 +21830,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="129" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>974</v>
       </c>
@@ -21952,7 +21955,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="130" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>968</v>
       </c>
@@ -22008,7 +22011,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
         <v>963</v>
       </c>
@@ -22136,7 +22139,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="132" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
         <v>963</v>
       </c>
@@ -22264,7 +22267,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="133" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>963</v>
       </c>
@@ -22392,7 +22395,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="134" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>963</v>
       </c>
@@ -22520,7 +22523,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="135" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>958</v>
       </c>
@@ -22642,7 +22645,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="136" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>958</v>
       </c>
@@ -22764,7 +22767,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="137" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>953</v>
       </c>
@@ -22886,7 +22889,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="138" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>953</v>
       </c>
@@ -23011,7 +23014,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="139" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>948</v>
       </c>
@@ -23061,7 +23064,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>1042</v>
       </c>
@@ -23192,7 +23195,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>1042</v>
       </c>
@@ -23324,7 +23327,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>1047</v>
       </c>
@@ -23396,7 +23399,7 @@
       <c r="AW142" s="12"/>
       <c r="AX142" s="12"/>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>1053</v>
       </c>
@@ -23468,7 +23471,7 @@
       <c r="AW143" s="12"/>
       <c r="AX143" s="12"/>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>1059</v>
       </c>
@@ -23540,7 +23543,7 @@
       <c r="AW144" s="12"/>
       <c r="AX144" s="12"/>
     </row>
-    <row r="145" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>1064</v>
       </c>
@@ -23658,7 +23661,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="146" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>1069</v>
       </c>
@@ -23783,7 +23786,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="147" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>1069</v>
       </c>
@@ -23908,7 +23911,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="148" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>1074</v>
       </c>
@@ -23982,7 +23985,7 @@
       <c r="AW148" s="12"/>
       <c r="AX148" s="16"/>
     </row>
-    <row r="149" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
         <v>1080</v>
       </c>
@@ -24113,7 +24116,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="150" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>1080</v>
       </c>
@@ -24244,7 +24247,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="151" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
         <v>1080</v>
       </c>
@@ -24376,7 +24379,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="152" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>1087</v>
       </c>
@@ -24516,7 +24519,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="153" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="s">
         <v>1124</v>
       </c>
@@ -24638,7 +24641,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="154" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
         <v>1124</v>
       </c>
@@ -24760,7 +24763,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="155" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
         <v>1124</v>
       </c>
@@ -24882,7 +24885,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="156" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="s">
         <v>1124</v>
       </c>
@@ -25004,7 +25007,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="157" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
         <v>1124</v>
       </c>
@@ -25126,7 +25129,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="158" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="16" t="s">
         <v>1124</v>
       </c>
@@ -25248,7 +25251,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="159" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
         <v>1124</v>
       </c>
@@ -25370,7 +25373,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="160" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
         <v>1124</v>
       </c>
@@ -25503,7 +25506,7 @@
       </c>
       <c r="AY160" s="16"/>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
         <v>1129</v>
       </c>
@@ -25589,7 +25592,7 @@
       <c r="AW161" s="16"/>
       <c r="AX161" s="16"/>
     </row>
-    <row r="162" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
         <v>1135</v>
       </c>
@@ -25720,7 +25723,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="163" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
         <v>1135</v>
       </c>
@@ -25851,7 +25854,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
         <v>1135</v>
       </c>
@@ -25985,7 +25988,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="165" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
         <v>1135</v>
       </c>
@@ -26110,7 +26113,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="166" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="16" t="s">
         <v>1140</v>
       </c>
@@ -26247,7 +26250,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
         <v>1140</v>
       </c>
@@ -26387,7 +26390,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
         <v>1145</v>
       </c>
@@ -26474,7 +26477,7 @@
       <c r="AW168" s="12"/>
       <c r="AX168" s="16"/>
     </row>
-    <row r="169" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="16" t="s">
         <v>1151</v>
       </c>
@@ -26602,7 +26605,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="170" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="16" t="s">
         <v>1151</v>
       </c>
@@ -26730,7 +26733,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="171" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
         <v>1151</v>
       </c>
@@ -26858,7 +26861,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="172" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="16" t="s">
         <v>1151</v>
       </c>
@@ -26986,7 +26989,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="s">
         <v>1151</v>
       </c>
@@ -27122,7 +27125,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="174" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="16" t="s">
         <v>1156</v>
       </c>
@@ -27241,7 +27244,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="175" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
         <v>1156</v>
       </c>
@@ -27371,7 +27374,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="176" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
         <v>1161</v>
       </c>
@@ -27456,7 +27459,7 @@
       <c r="AW176" s="12"/>
       <c r="AX176" s="16"/>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
         <v>1166</v>
       </c>
@@ -27592,7 +27595,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
         <v>1171</v>
       </c>
@@ -27884,17 +27887,17 @@
       <selection activeCell="AP19" sqref="AP12:AP19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="32.1796875" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7265625" customWidth="1"/>
-    <col min="33" max="33" width="26.26953125" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="33" max="33" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
@@ -27959,7 +27962,7 @@
       <c r="AV1" s="9"/>
       <c r="AW1" s="9"/>
     </row>
-    <row r="2" spans="1:49" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -28108,7 +28111,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -28165,7 +28168,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -28222,7 +28225,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -28278,7 +28281,7 @@
       </c>
       <c r="AW5" s="8"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" ht="30" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -28323,7 +28326,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -28365,7 +28368,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -28403,7 +28406,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -28438,7 +28441,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -28470,7 +28473,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -28505,7 +28508,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -28537,7 +28540,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -28572,7 +28575,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -28601,7 +28604,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -28630,7 +28633,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -28650,7 +28653,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AM17" t="s">
         <v>165</v>
       </c>
@@ -28658,22 +28661,22 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AP18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AP19" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH22" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH23" s="6" t="s">
         <v>118</v>
       </c>
@@ -28708,7 +28711,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH24" t="s">
         <v>132</v>
       </c>
@@ -28734,7 +28737,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH25" t="s">
         <v>140</v>
       </c>
@@ -28757,7 +28760,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AJ26" t="s">
         <v>147</v>
       </c>
@@ -28768,7 +28771,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AJ27" t="s">
         <v>150</v>
       </c>
@@ -28779,7 +28782,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AJ28" t="s">
         <v>152</v>
       </c>
@@ -28787,12 +28790,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AP29" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH30" s="5" t="s">
         <v>154</v>
       </c>
@@ -28815,7 +28818,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH31" s="6" t="s">
         <v>132</v>
       </c>
@@ -28841,7 +28844,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH32" t="s">
         <v>156</v>
       </c>
@@ -28867,7 +28870,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AH33" t="s">
         <v>158</v>
       </c>
@@ -28887,7 +28890,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AI34" t="s">
         <v>160</v>
       </c>
@@ -28902,7 +28905,7 @@
       </c>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AI35" t="s">
         <v>116</v>
       </c>
@@ -28916,7 +28919,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AT36" t="s">
         <v>214</v>
       </c>
@@ -28924,10 +28927,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -28955,37 +28958,37 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.81640625" customWidth="1"/>
-    <col min="19" max="19" width="17.7265625" customWidth="1"/>
-    <col min="20" max="20" width="19.26953125" customWidth="1"/>
-    <col min="21" max="21" width="17.7265625" customWidth="1"/>
-    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.453125" customWidth="1"/>
-    <col min="30" max="30" width="15.26953125" customWidth="1"/>
-    <col min="31" max="31" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7265625" customWidth="1"/>
-    <col min="33" max="33" width="12.54296875" customWidth="1"/>
+    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" customWidth="1"/>
+    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
@@ -29032,7 +29035,7 @@
       <c r="AF1" s="20"/>
       <c r="AG1" s="20"/>
     </row>
-    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -29133,7 +29136,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -29195,7 +29198,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -29245,7 +29248,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -29298,7 +29301,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -29339,7 +29342,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -29383,7 +29386,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -29418,7 +29421,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -29453,7 +29456,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -29485,7 +29488,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -29514,7 +29517,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -29546,7 +29549,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -29575,7 +29578,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -29598,7 +29601,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -29624,7 +29627,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -29641,7 +29644,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
         <v>122</v>
       </c>
@@ -29652,7 +29655,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
         <v>123</v>
       </c>
@@ -29666,7 +29669,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>155</v>
       </c>
@@ -29680,7 +29683,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S20" t="s">
         <v>159</v>
       </c>
@@ -29691,7 +29694,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S21" t="s">
         <v>231</v>
       </c>
@@ -29705,7 +29708,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>116</v>
       </c>
@@ -29716,7 +29719,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>130</v>
       </c>
@@ -29727,7 +29730,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>144</v>
       </c>
@@ -29735,7 +29738,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>149</v>
       </c>
@@ -29743,7 +29746,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>151</v>
       </c>
@@ -29751,7 +29754,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>153</v>
       </c>
@@ -29765,7 +29768,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
         <v>125</v>
       </c>
@@ -29776,7 +29779,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>145</v>
       </c>
@@ -29787,7 +29790,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
         <v>126</v>
       </c>
@@ -29798,7 +29801,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>146</v>
       </c>
@@ -29806,7 +29809,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
         <v>131</v>
       </c>
@@ -29814,12 +29817,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z33" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z34" t="s">
         <v>153</v>
       </c>
@@ -29994,14 +29997,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_vdReijden.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_vdReijden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867432C1-E2D9-4533-9EB0-35AFC878758C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAA8765-0098-4EF4-ABCC-8105BF5611A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2330,7 +2330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5982" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5981" uniqueCount="1260">
   <si>
     <t>SearchID</t>
   </si>
@@ -4928,9 +4928,6 @@
   </si>
   <si>
     <t>Porpoise bycatch</t>
-  </si>
-  <si>
-    <t>Fishing activity with/without acoustic pingers</t>
   </si>
   <si>
     <t>The difference in bycatch between nets with active pingers and nets with inactive orno pingers was highly significant (p &lt; 0.007) for both the wreck fishery and the flat bottom/stony groundfishery. We conclude that the direct effects of the pinger signals on the porpoises caused the reduction inbycatch, which means that the results can be generalized to other situations where harbour porpoises aretaken in gillnets.</t>
@@ -6108,6 +6105,12 @@
   </si>
   <si>
     <t>Macrofauna communities</t>
+  </si>
+  <si>
+    <t>Prey abundance</t>
+  </si>
+  <si>
+    <t>Fishing activity with active pingers</t>
   </si>
 </sst>
 </file>
@@ -6601,10 +6604,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AK180" sqref="AK180"/>
+      <selection pane="bottomLeft" activeCell="AT203" sqref="AT203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6979,7 +6982,7 @@
         <v>210</v>
       </c>
       <c r="AX3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
@@ -7173,7 +7176,7 @@
         <v>212</v>
       </c>
       <c r="AX5" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7292,7 +7295,7 @@
         <v>212</v>
       </c>
       <c r="AX6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="7" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7405,7 +7408,7 @@
         <v>212</v>
       </c>
       <c r="AX7" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7518,7 +7521,7 @@
         <v>212</v>
       </c>
       <c r="AX8" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7628,7 +7631,7 @@
         <v>212</v>
       </c>
       <c r="AX9" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
@@ -7747,7 +7750,7 @@
         <v>212</v>
       </c>
       <c r="AX10" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7821,7 +7824,7 @@
         <v>3</v>
       </c>
       <c r="AD11" s="12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AF11" s="12">
         <v>4.4000000000000004</v>
@@ -7939,7 +7942,7 @@
         <v>3</v>
       </c>
       <c r="AD12" s="12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AE12" s="12"/>
       <c r="AF12">
@@ -8653,7 +8656,7 @@
         <v>211</v>
       </c>
       <c r="AX18" s="12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="19" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8760,7 +8763,7 @@
         <v>163</v>
       </c>
       <c r="AO19" s="11" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="AQ19" s="11" t="s">
         <v>167</v>
@@ -8781,7 +8784,7 @@
         <v>213</v>
       </c>
       <c r="AX19" s="11" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="20" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8903,7 +8906,7 @@
         <v>182</v>
       </c>
       <c r="AU20" s="11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AV20" t="s">
         <v>216</v>
@@ -8912,7 +8915,7 @@
         <v>212</v>
       </c>
       <c r="AX20" s="11" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="21" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -11295,7 +11298,7 @@
         <v>210</v>
       </c>
       <c r="AX41" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
@@ -11411,7 +11414,7 @@
         <v>199</v>
       </c>
       <c r="AU42" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AV42" t="s">
         <v>202</v>
@@ -11420,7 +11423,7 @@
         <v>212</v>
       </c>
       <c r="AX42" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
@@ -11512,7 +11515,7 @@
         <v>147</v>
       </c>
       <c r="AL43" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AM43" t="s">
         <v>235</v>
@@ -11545,7 +11548,7 @@
         <v>210</v>
       </c>
       <c r="AX43" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
@@ -11997,7 +12000,7 @@
         <v>212</v>
       </c>
       <c r="AX47" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.25">
@@ -12788,7 +12791,7 @@
         <v>716</v>
       </c>
       <c r="AU54" s="16" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AV54" s="12" t="s">
         <v>116</v>
@@ -12913,7 +12916,7 @@
         <v>715</v>
       </c>
       <c r="AU55" s="18" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="AV55" s="12" t="s">
         <v>202</v>
@@ -12922,7 +12925,7 @@
         <v>211</v>
       </c>
       <c r="AX55" s="12" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="56" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -13315,7 +13318,7 @@
         <v>3</v>
       </c>
       <c r="AD59" s="11" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="AF59" s="11">
         <v>4.2</v>
@@ -13351,7 +13354,7 @@
         <v>782</v>
       </c>
       <c r="AU59" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AV59" s="11" t="s">
         <v>202</v>
@@ -13360,7 +13363,7 @@
         <v>211</v>
       </c>
       <c r="AX59" s="11" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="60" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -13440,7 +13443,7 @@
         <v>3</v>
       </c>
       <c r="AD60" s="11" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="AF60" s="11">
         <v>4.2</v>
@@ -13473,7 +13476,7 @@
         <v>782</v>
       </c>
       <c r="AU60" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AV60" s="11" t="s">
         <v>202</v>
@@ -13482,7 +13485,7 @@
         <v>211</v>
       </c>
       <c r="AX60" s="11" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="61" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -13562,7 +13565,7 @@
         <v>3</v>
       </c>
       <c r="AD61" s="11" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="AF61" s="11">
         <v>4.2</v>
@@ -13595,7 +13598,7 @@
         <v>782</v>
       </c>
       <c r="AU61" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AV61" s="11" t="s">
         <v>202</v>
@@ -13604,7 +13607,7 @@
         <v>211</v>
       </c>
       <c r="AX61" s="11" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.25">
@@ -14336,7 +14339,7 @@
         <v>153</v>
       </c>
       <c r="AL67" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AM67" t="s">
         <v>235</v>
@@ -15982,7 +15985,7 @@
         <v>165</v>
       </c>
       <c r="AO80" s="11" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AP80" s="11" t="s">
         <v>831</v>
@@ -15997,7 +16000,7 @@
         <v>191</v>
       </c>
       <c r="AU80" s="11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AV80" s="11" t="s">
         <v>202</v>
@@ -16116,7 +16119,7 @@
         <v>165</v>
       </c>
       <c r="AO81" s="11" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AP81" s="11" t="s">
         <v>831</v>
@@ -16131,7 +16134,7 @@
         <v>191</v>
       </c>
       <c r="AU81" s="11" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AV81" s="11" t="s">
         <v>202</v>
@@ -16140,7 +16143,7 @@
         <v>210</v>
       </c>
       <c r="AX81" s="11" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="82" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -17077,7 +17080,7 @@
         <v>3</v>
       </c>
       <c r="AD89" s="12" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AF89" s="12">
         <v>4.2</v>
@@ -17104,7 +17107,7 @@
         <v>165</v>
       </c>
       <c r="AO89" s="12" t="s">
-        <v>866</v>
+        <v>1259</v>
       </c>
       <c r="AQ89" s="12" t="s">
         <v>167</v>
@@ -17128,7 +17131,7 @@
         <v>210</v>
       </c>
       <c r="AX89" s="12" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="90" spans="1:50" x14ac:dyDescent="0.25">
@@ -17208,7 +17211,7 @@
         <v>3</v>
       </c>
       <c r="AD90" s="12" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AF90">
         <v>4.2</v>
@@ -17232,7 +17235,7 @@
         <v>163</v>
       </c>
       <c r="AO90" s="12" t="s">
-        <v>866</v>
+        <v>1259</v>
       </c>
       <c r="AQ90" t="s">
         <v>167</v>
@@ -17256,7 +17259,7 @@
         <v>213</v>
       </c>
       <c r="AX90" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.25">
@@ -17321,7 +17324,7 @@
         <v>219</v>
       </c>
       <c r="Z91" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AA91">
         <v>2</v>
@@ -17333,7 +17336,7 @@
         <v>3</v>
       </c>
       <c r="AD91" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AF91" t="s">
         <v>595</v>
@@ -17357,7 +17360,7 @@
         <v>696</v>
       </c>
       <c r="AP91" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AQ91" t="s">
         <v>167</v>
@@ -17378,7 +17381,7 @@
         <v>211</v>
       </c>
       <c r="AX91" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="92" spans="1:50" x14ac:dyDescent="0.25">
@@ -17449,7 +17452,7 @@
         <v>69</v>
       </c>
       <c r="Z92" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AA92">
         <v>2</v>
@@ -17461,7 +17464,7 @@
         <v>3</v>
       </c>
       <c r="AD92" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AF92">
         <v>4.4000000000000004</v>
@@ -17479,7 +17482,7 @@
         <v>235</v>
       </c>
       <c r="AO92" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AP92" t="s">
         <v>697</v>
@@ -17491,7 +17494,7 @@
         <v>597</v>
       </c>
       <c r="AT92" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AU92" t="s">
         <v>803</v>
@@ -17503,7 +17506,7 @@
         <v>211</v>
       </c>
       <c r="AX92" s="12" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="93" spans="1:50" x14ac:dyDescent="0.25">
@@ -17568,7 +17571,7 @@
         <v>219</v>
       </c>
       <c r="Z93" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AA93">
         <v>1</v>
@@ -17580,7 +17583,7 @@
         <v>2</v>
       </c>
       <c r="AD93" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AF93">
         <v>4.3</v>
@@ -17601,7 +17604,7 @@
         <v>236</v>
       </c>
       <c r="AO93" s="12" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AQ93" t="s">
         <v>167</v>
@@ -17619,7 +17622,7 @@
         <v>212</v>
       </c>
       <c r="AX93" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="94" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -17702,7 +17705,7 @@
         <v>2</v>
       </c>
       <c r="AD94" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AF94" s="12">
         <v>4.2</v>
@@ -17720,7 +17723,7 @@
         <v>158</v>
       </c>
       <c r="AL94" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AM94" s="12" t="s">
         <v>235</v>
@@ -17747,7 +17750,7 @@
         <v>202</v>
       </c>
       <c r="AX94" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="95" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -17830,7 +17833,7 @@
         <v>2</v>
       </c>
       <c r="AD95" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AF95" s="12">
         <v>4.2</v>
@@ -17848,7 +17851,7 @@
         <v>158</v>
       </c>
       <c r="AL95" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AM95" s="12" t="s">
         <v>235</v>
@@ -17872,7 +17875,7 @@
         <v>202</v>
       </c>
       <c r="AX95" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="96" spans="1:50" x14ac:dyDescent="0.25">
@@ -17937,7 +17940,7 @@
         <v>219</v>
       </c>
       <c r="Z96" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AA96">
         <v>3</v>
@@ -17949,7 +17952,7 @@
         <v>3</v>
       </c>
       <c r="AD96" s="12" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AF96" t="s">
         <v>109</v>
@@ -17976,7 +17979,7 @@
         <v>627</v>
       </c>
       <c r="AP96" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AQ96" t="s">
         <v>167</v>
@@ -17988,10 +17991,10 @@
         <v>178</v>
       </c>
       <c r="AT96" t="s">
+        <v>887</v>
+      </c>
+      <c r="AU96" t="s">
         <v>888</v>
-      </c>
-      <c r="AU96" t="s">
-        <v>889</v>
       </c>
       <c r="AV96" t="s">
         <v>202</v>
@@ -18000,7 +18003,7 @@
         <v>211</v>
       </c>
       <c r="AX96" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="97" spans="1:50" x14ac:dyDescent="0.25">
@@ -18080,7 +18083,7 @@
         <v>3</v>
       </c>
       <c r="AD97" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AF97">
         <v>4.2</v>
@@ -18095,7 +18098,7 @@
         <v>141</v>
       </c>
       <c r="AL97" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AM97" t="s">
         <v>235</v>
@@ -18116,10 +18119,10 @@
         <v>178</v>
       </c>
       <c r="AT97" t="s">
+        <v>893</v>
+      </c>
+      <c r="AU97" s="12" t="s">
         <v>894</v>
-      </c>
-      <c r="AU97" s="12" t="s">
-        <v>895</v>
       </c>
       <c r="AV97" t="s">
         <v>203</v>
@@ -18128,7 +18131,7 @@
         <v>212</v>
       </c>
       <c r="AX97" s="12" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="98" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -18193,7 +18196,7 @@
         <v>72</v>
       </c>
       <c r="Z98" s="16" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AA98" s="16">
         <v>3</v>
@@ -18205,7 +18208,7 @@
         <v>3</v>
       </c>
       <c r="AD98" s="16" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AF98" s="16" t="s">
         <v>595</v>
@@ -18226,10 +18229,10 @@
         <v>236</v>
       </c>
       <c r="AO98" s="16" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AP98" s="16" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AQ98" s="16" t="s">
         <v>167</v>
@@ -18241,7 +18244,7 @@
         <v>642</v>
       </c>
       <c r="AU98" s="16" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="AV98" s="16" t="s">
         <v>209</v>
@@ -18250,7 +18253,7 @@
         <v>211</v>
       </c>
       <c r="AX98" s="16" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="99" spans="1:50" x14ac:dyDescent="0.25">
@@ -18315,7 +18318,7 @@
         <v>72</v>
       </c>
       <c r="Z99" s="12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AA99">
         <v>3</v>
@@ -18327,7 +18330,7 @@
         <v>3</v>
       </c>
       <c r="AD99" s="12" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AF99" t="s">
         <v>595</v>
@@ -18348,10 +18351,10 @@
         <v>236</v>
       </c>
       <c r="AO99" s="12" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AP99" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AQ99" t="s">
         <v>167</v>
@@ -18363,7 +18366,7 @@
         <v>642</v>
       </c>
       <c r="AU99" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="AV99" t="s">
         <v>208</v>
@@ -18372,7 +18375,7 @@
         <v>211</v>
       </c>
       <c r="AX99" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="100" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18449,7 +18452,7 @@
         <v>3</v>
       </c>
       <c r="AD100" s="12" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AF100" s="12">
         <v>4.4000000000000004</v>
@@ -18461,7 +18464,7 @@
         <v>127</v>
       </c>
       <c r="AL100" s="12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AM100" s="12" t="s">
         <v>235</v>
@@ -18479,7 +18482,7 @@
         <v>642</v>
       </c>
       <c r="AU100" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AV100" s="12" t="s">
         <v>206</v>
@@ -18488,7 +18491,7 @@
         <v>212</v>
       </c>
       <c r="AX100" s="12" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="101" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18565,7 +18568,7 @@
         <v>3</v>
       </c>
       <c r="AD101" s="12" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AF101" s="12">
         <v>4.4000000000000004</v>
@@ -18577,7 +18580,7 @@
         <v>127</v>
       </c>
       <c r="AL101" s="12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AM101" s="12" t="s">
         <v>235</v>
@@ -18595,10 +18598,10 @@
         <v>184</v>
       </c>
       <c r="AT101" s="12" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AU101" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AV101" s="12" t="s">
         <v>206</v>
@@ -18607,7 +18610,7 @@
         <v>211</v>
       </c>
       <c r="AX101" s="12" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="102" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18684,7 +18687,7 @@
         <v>3</v>
       </c>
       <c r="AD102" s="12" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AF102" s="12">
         <v>4.4000000000000004</v>
@@ -18696,7 +18699,7 @@
         <v>127</v>
       </c>
       <c r="AL102" s="12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AM102" s="12" t="s">
         <v>235</v>
@@ -18714,10 +18717,10 @@
         <v>184</v>
       </c>
       <c r="AT102" s="12" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AU102" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AV102" s="12" t="s">
         <v>206</v>
@@ -18726,7 +18729,7 @@
         <v>212</v>
       </c>
       <c r="AX102" s="12" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="103" spans="1:50" x14ac:dyDescent="0.25">
@@ -18806,7 +18809,7 @@
         <v>2</v>
       </c>
       <c r="AD103" s="12" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AF103">
         <v>4.2</v>
@@ -18833,10 +18836,10 @@
         <v>165</v>
       </c>
       <c r="AO103" s="12" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AP103" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AQ103" t="s">
         <v>167</v>
@@ -18845,7 +18848,7 @@
         <v>153</v>
       </c>
       <c r="AU103" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AV103" t="s">
         <v>202</v>
@@ -18854,7 +18857,7 @@
         <v>212</v>
       </c>
       <c r="AX103" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="104" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -18925,7 +18928,7 @@
         <v>69</v>
       </c>
       <c r="Z104" s="12" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AA104" s="12">
         <v>2</v>
@@ -18937,7 +18940,7 @@
         <v>3</v>
       </c>
       <c r="AD104" s="12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF104" s="12">
         <v>4.3</v>
@@ -18967,7 +18970,7 @@
         <v>178</v>
       </c>
       <c r="AU104" s="12" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AV104" s="12" t="s">
         <v>116</v>
@@ -18976,7 +18979,7 @@
         <v>212</v>
       </c>
       <c r="AX104" s="12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="105" spans="1:50" x14ac:dyDescent="0.25">
@@ -19047,7 +19050,7 @@
         <v>69</v>
       </c>
       <c r="Z105" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AA105">
         <v>2</v>
@@ -19059,7 +19062,7 @@
         <v>3</v>
       </c>
       <c r="AD105" s="12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF105">
         <v>4.3</v>
@@ -19090,7 +19093,7 @@
       </c>
       <c r="AT105" s="12"/>
       <c r="AU105" s="12" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AV105" t="s">
         <v>116</v>
@@ -19099,7 +19102,7 @@
         <v>212</v>
       </c>
       <c r="AX105" s="12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="106" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -19170,7 +19173,7 @@
         <v>69</v>
       </c>
       <c r="Z106" s="12" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AA106" s="12">
         <v>2</v>
@@ -19182,7 +19185,7 @@
         <v>3</v>
       </c>
       <c r="AD106" s="12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF106" s="12">
         <v>4.3</v>
@@ -19209,7 +19212,7 @@
         <v>171</v>
       </c>
       <c r="AU106" s="12" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AV106" s="12" t="s">
         <v>116</v>
@@ -19218,7 +19221,7 @@
         <v>212</v>
       </c>
       <c r="AX106" s="12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="107" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -19289,7 +19292,7 @@
         <v>69</v>
       </c>
       <c r="Z107" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AA107" s="12">
         <v>2</v>
@@ -19301,7 +19304,7 @@
         <v>3</v>
       </c>
       <c r="AD107" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AF107" s="12">
         <v>4.2</v>
@@ -19316,7 +19319,7 @@
         <v>134</v>
       </c>
       <c r="AL107" s="12" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AM107" s="12" t="s">
         <v>235</v>
@@ -19325,10 +19328,10 @@
         <v>164</v>
       </c>
       <c r="AO107" s="12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AP107" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AQ107" s="12" t="s">
         <v>167</v>
@@ -19346,7 +19349,7 @@
         <v>212</v>
       </c>
       <c r="AX107" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="108" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -19417,7 +19420,7 @@
         <v>69</v>
       </c>
       <c r="Z108" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AA108" s="12">
         <v>2</v>
@@ -19429,7 +19432,7 @@
         <v>3</v>
       </c>
       <c r="AD108" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AF108" s="12">
         <v>4.2</v>
@@ -19444,7 +19447,7 @@
         <v>148</v>
       </c>
       <c r="AL108" s="12" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AM108" s="12" t="s">
         <v>235</v>
@@ -19453,10 +19456,10 @@
         <v>164</v>
       </c>
       <c r="AO108" s="12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AP108" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AQ108" s="12" t="s">
         <v>167</v>
@@ -19474,7 +19477,7 @@
         <v>212</v>
       </c>
       <c r="AX108" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="109" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -19557,7 +19560,7 @@
         <v>3</v>
       </c>
       <c r="AD109" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AF109" s="12">
         <v>4.2</v>
@@ -19578,10 +19581,10 @@
         <v>164</v>
       </c>
       <c r="AO109" s="12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AP109" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AQ109" s="12" t="s">
         <v>167</v>
@@ -19599,7 +19602,7 @@
         <v>211</v>
       </c>
       <c r="AX109" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="110" spans="1:50" x14ac:dyDescent="0.25">
@@ -19682,7 +19685,7 @@
         <v>3</v>
       </c>
       <c r="AD110" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AF110">
         <v>4.2</v>
@@ -19697,7 +19700,7 @@
         <v>148</v>
       </c>
       <c r="AL110" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AM110" t="s">
         <v>235</v>
@@ -19706,10 +19709,10 @@
         <v>164</v>
       </c>
       <c r="AO110" s="12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AP110" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AQ110" t="s">
         <v>167</v>
@@ -19728,7 +19731,7 @@
         <v>211</v>
       </c>
       <c r="AX110" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="111" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -19808,7 +19811,7 @@
         <v>3</v>
       </c>
       <c r="AD111" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AF111" s="12">
         <v>4.4000000000000004</v>
@@ -19832,7 +19835,7 @@
         <v>597</v>
       </c>
       <c r="AU111" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AV111" s="12" t="s">
         <v>206</v>
@@ -19841,7 +19844,7 @@
         <v>211</v>
       </c>
       <c r="AX111" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="112" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -19921,7 +19924,7 @@
         <v>3</v>
       </c>
       <c r="AD112" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AF112" s="12">
         <v>4.4000000000000004</v>
@@ -19948,7 +19951,7 @@
         <v>180</v>
       </c>
       <c r="AU112" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AV112" s="12" t="s">
         <v>206</v>
@@ -19957,7 +19960,7 @@
         <v>211</v>
       </c>
       <c r="AX112" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="113" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -20037,7 +20040,7 @@
         <v>3</v>
       </c>
       <c r="AD113" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AF113" s="12">
         <v>4.4000000000000004</v>
@@ -20064,7 +20067,7 @@
         <v>191</v>
       </c>
       <c r="AU113" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AV113" s="12" t="s">
         <v>206</v>
@@ -20073,7 +20076,7 @@
         <v>211</v>
       </c>
       <c r="AX113" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="114" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -20153,7 +20156,7 @@
         <v>3</v>
       </c>
       <c r="AD114" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AF114" s="12">
         <v>4.4000000000000004</v>
@@ -20180,7 +20183,7 @@
         <v>184</v>
       </c>
       <c r="AU114" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AV114" s="12" t="s">
         <v>206</v>
@@ -20189,7 +20192,7 @@
         <v>211</v>
       </c>
       <c r="AX114" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="115" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -20272,7 +20275,7 @@
         <v>3</v>
       </c>
       <c r="AD115" s="12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AF115" s="12">
         <v>4.4000000000000004</v>
@@ -20296,10 +20299,10 @@
         <v>597</v>
       </c>
       <c r="AT115" s="12" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AU115" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AV115" s="12" t="s">
         <v>206</v>
@@ -20308,7 +20311,7 @@
         <v>212</v>
       </c>
       <c r="AX115" s="12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="116" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -20391,7 +20394,7 @@
         <v>3</v>
       </c>
       <c r="AD116" s="12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AF116" s="12">
         <v>4.4000000000000004</v>
@@ -20415,10 +20418,10 @@
         <v>597</v>
       </c>
       <c r="AT116" s="12" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AU116" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AV116" s="12" t="s">
         <v>206</v>
@@ -20427,7 +20430,7 @@
         <v>212</v>
       </c>
       <c r="AX116" s="12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="117" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -20510,7 +20513,7 @@
         <v>3</v>
       </c>
       <c r="AD117" s="12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AF117" s="12">
         <v>4.4000000000000004</v>
@@ -20534,10 +20537,10 @@
         <v>596</v>
       </c>
       <c r="AT117" s="12" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AU117" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AV117" s="12" t="s">
         <v>206</v>
@@ -20546,7 +20549,7 @@
         <v>212</v>
       </c>
       <c r="AX117" s="12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="118" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -20629,7 +20632,7 @@
         <v>3</v>
       </c>
       <c r="AD118" s="12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AF118" s="12">
         <v>4.4000000000000004</v>
@@ -20653,10 +20656,10 @@
         <v>597</v>
       </c>
       <c r="AT118" s="12" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AU118" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AV118" s="12" t="s">
         <v>206</v>
@@ -20665,7 +20668,7 @@
         <v>212</v>
       </c>
       <c r="AX118" s="12" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="119" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -20748,7 +20751,7 @@
         <v>3</v>
       </c>
       <c r="AD119" s="12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AF119" s="12">
         <v>4.4000000000000004</v>
@@ -20772,10 +20775,10 @@
         <v>597</v>
       </c>
       <c r="AT119" s="12" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AU119" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AV119" s="12" t="s">
         <v>206</v>
@@ -20784,7 +20787,7 @@
         <v>212</v>
       </c>
       <c r="AX119" s="12" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="120" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -20867,7 +20870,7 @@
         <v>3</v>
       </c>
       <c r="AD120" s="12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AF120" s="12">
         <v>4.4000000000000004</v>
@@ -20891,10 +20894,10 @@
         <v>596</v>
       </c>
       <c r="AT120" s="12" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AU120" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AV120" s="12" t="s">
         <v>206</v>
@@ -20903,7 +20906,7 @@
         <v>212</v>
       </c>
       <c r="AX120" s="12" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="121" spans="1:50" x14ac:dyDescent="0.25">
@@ -20963,16 +20966,16 @@
     </row>
     <row r="122" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E122" s="12">
         <v>2009</v>
@@ -20993,16 +20996,16 @@
         <v>2025</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="M122" s="12" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="N122" s="12" t="s">
         <v>249</v>
       </c>
       <c r="O122" s="12" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="P122" s="12" t="s">
         <v>299</v>
@@ -21041,7 +21044,7 @@
         <v>2</v>
       </c>
       <c r="AD122" s="12" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AF122" s="12">
         <v>4.3</v>
@@ -21056,7 +21059,7 @@
         <v>143</v>
       </c>
       <c r="AL122" s="12" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AM122" s="12" t="s">
         <v>235</v>
@@ -21074,10 +21077,10 @@
         <v>597</v>
       </c>
       <c r="AT122" s="12" t="s">
+        <v>999</v>
+      </c>
+      <c r="AU122" s="12" t="s">
         <v>1000</v>
-      </c>
-      <c r="AU122" s="12" t="s">
-        <v>1001</v>
       </c>
       <c r="AV122" s="12" t="s">
         <v>202</v>
@@ -21086,21 +21089,21 @@
         <v>211</v>
       </c>
       <c r="AX122" s="12" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="123" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E123" s="12">
         <v>2008</v>
@@ -21121,10 +21124,10 @@
         <v>91</v>
       </c>
       <c r="K123" s="12" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M123" s="12" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="N123" s="12" t="s">
         <v>249</v>
@@ -21169,7 +21172,7 @@
         <v>3</v>
       </c>
       <c r="AD123" s="12" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AF123" s="12">
         <v>4.4000000000000004</v>
@@ -21184,7 +21187,7 @@
         <v>141</v>
       </c>
       <c r="AL123" s="12" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AM123" s="12" t="s">
         <v>235</v>
@@ -21193,7 +21196,7 @@
         <v>163</v>
       </c>
       <c r="AO123" s="12" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AQ123" s="12" t="s">
         <v>168</v>
@@ -21211,27 +21214,27 @@
         <v>211</v>
       </c>
       <c r="AX123" s="12" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="124" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E124" s="12">
         <v>2008</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G124" s="12">
         <v>252</v>
@@ -21246,10 +21249,10 @@
         <v>155</v>
       </c>
       <c r="K124" s="12" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M124" s="12" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="N124" s="12" t="s">
         <v>249</v>
@@ -21297,7 +21300,7 @@
         <v>3</v>
       </c>
       <c r="AD124" s="12" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AF124" s="12">
         <v>4.3</v>
@@ -21315,7 +21318,7 @@
         <v>236</v>
       </c>
       <c r="AO124" s="12" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AP124" s="12" t="s">
         <v>697</v>
@@ -21327,7 +21330,7 @@
         <v>597</v>
       </c>
       <c r="AU124" s="12" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AV124" s="12" t="s">
         <v>116</v>
@@ -21336,27 +21339,27 @@
         <v>210</v>
       </c>
       <c r="AX124" s="12" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="125" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E125" s="12">
         <v>2008</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G125" s="12">
         <v>154</v>
@@ -21371,10 +21374,10 @@
         <v>773</v>
       </c>
       <c r="K125" s="12" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M125" s="12" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="N125" s="12" t="s">
         <v>249</v>
@@ -21416,7 +21419,7 @@
         <v>3</v>
       </c>
       <c r="AD125" s="12" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AF125" s="12">
         <v>4.4000000000000004</v>
@@ -21431,7 +21434,7 @@
         <v>141</v>
       </c>
       <c r="AL125" s="12" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AM125" s="12" t="s">
         <v>235</v>
@@ -21440,7 +21443,7 @@
         <v>163</v>
       </c>
       <c r="AO125" s="12" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AQ125" s="12" t="s">
         <v>167</v>
@@ -21458,27 +21461,27 @@
         <v>212</v>
       </c>
       <c r="AX125" s="12" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="126" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E126" s="12">
         <v>2008</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G126" s="12">
         <v>154</v>
@@ -21493,10 +21496,10 @@
         <v>773</v>
       </c>
       <c r="K126" s="12" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M126" s="12" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="N126" s="12" t="s">
         <v>249</v>
@@ -21538,7 +21541,7 @@
         <v>3</v>
       </c>
       <c r="AD126" s="12" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AF126" s="12">
         <v>4.4000000000000004</v>
@@ -21553,7 +21556,7 @@
         <v>141</v>
       </c>
       <c r="AL126" s="12" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AM126" s="12" t="s">
         <v>235</v>
@@ -21562,7 +21565,7 @@
         <v>163</v>
       </c>
       <c r="AO126" s="12" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AQ126" s="12" t="s">
         <v>167</v>
@@ -21571,7 +21574,7 @@
         <v>597</v>
       </c>
       <c r="AU126" s="12" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AV126" s="12" t="s">
         <v>205</v>
@@ -21580,27 +21583,27 @@
         <v>213</v>
       </c>
       <c r="AX126" s="12" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="127" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E127" s="12">
         <v>2008</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G127" s="12">
         <v>154</v>
@@ -21615,10 +21618,10 @@
         <v>773</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M127" s="12" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="N127" s="12" t="s">
         <v>249</v>
@@ -21660,7 +21663,7 @@
         <v>3</v>
       </c>
       <c r="AD127" s="12" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AF127" s="12">
         <v>4.4000000000000004</v>
@@ -21675,7 +21678,7 @@
         <v>141</v>
       </c>
       <c r="AL127" s="12" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AM127" s="12" t="s">
         <v>235</v>
@@ -21684,7 +21687,7 @@
         <v>163</v>
       </c>
       <c r="AO127" s="12" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AQ127" s="12" t="s">
         <v>167</v>
@@ -21693,7 +21696,7 @@
         <v>597</v>
       </c>
       <c r="AU127" s="12" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AV127" s="12" t="s">
         <v>206</v>
@@ -21702,27 +21705,27 @@
         <v>213</v>
       </c>
       <c r="AX127" s="12" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="128" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E128" s="12">
         <v>2008</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G128" s="12">
         <v>43</v>
@@ -21737,10 +21740,10 @@
         <v>20</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="M128" s="12" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N128" s="12" t="s">
         <v>249</v>
@@ -21782,7 +21785,7 @@
         <v>2</v>
       </c>
       <c r="AD128" s="12" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AF128" s="12">
         <v>4.2</v>
@@ -21797,7 +21800,7 @@
         <v>140</v>
       </c>
       <c r="AL128" s="12" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AM128" s="12" t="s">
         <v>235</v>
@@ -21806,7 +21809,7 @@
         <v>165</v>
       </c>
       <c r="AO128" s="12" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AQ128" s="12" t="s">
         <v>167</v>
@@ -21827,27 +21830,27 @@
         <v>213</v>
       </c>
       <c r="AX128" s="12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="129" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E129" s="12">
         <v>2008</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G129" s="12">
         <v>43</v>
@@ -21862,10 +21865,10 @@
         <v>20</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="M129" s="12" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N129" s="12" t="s">
         <v>249</v>
@@ -21907,7 +21910,7 @@
         <v>2</v>
       </c>
       <c r="AD129" s="12" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AF129" s="12">
         <v>4.2</v>
@@ -21922,7 +21925,7 @@
         <v>140</v>
       </c>
       <c r="AL129" s="12" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AM129" s="12" t="s">
         <v>235</v>
@@ -21931,7 +21934,7 @@
         <v>165</v>
       </c>
       <c r="AO129" s="12" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AQ129" s="12" t="s">
         <v>167</v>
@@ -21952,21 +21955,21 @@
         <v>213</v>
       </c>
       <c r="AX129" s="12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="130" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E130" s="12">
         <v>2007</v>
@@ -21987,10 +21990,10 @@
         <v>132</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="M130" s="12" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N130" s="12" t="s">
         <v>249</v>
@@ -22013,16 +22016,16 @@
     </row>
     <row r="131" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E131" s="16">
         <v>2007</v>
@@ -22043,10 +22046,10 @@
         <v>908</v>
       </c>
       <c r="K131" s="16" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M131" s="16" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="N131" s="16" t="s">
         <v>249</v>
@@ -22079,7 +22082,7 @@
         <v>219</v>
       </c>
       <c r="Z131" s="16" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AA131" s="16">
         <v>3</v>
@@ -22091,7 +22094,7 @@
         <v>3</v>
       </c>
       <c r="AD131" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AF131" s="16" t="s">
         <v>595</v>
@@ -22109,13 +22112,13 @@
         <v>137</v>
       </c>
       <c r="AL131" s="16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AM131" s="16" t="s">
         <v>236</v>
       </c>
       <c r="AO131" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AQ131" s="16" t="s">
         <v>167</v>
@@ -22136,21 +22139,21 @@
         <v>212</v>
       </c>
       <c r="AX131" s="16" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="132" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B132" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E132" s="16">
         <v>2007</v>
@@ -22171,10 +22174,10 @@
         <v>908</v>
       </c>
       <c r="K132" s="16" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M132" s="16" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="N132" s="16" t="s">
         <v>249</v>
@@ -22207,7 +22210,7 @@
         <v>219</v>
       </c>
       <c r="Z132" s="16" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AA132" s="16">
         <v>3</v>
@@ -22219,7 +22222,7 @@
         <v>3</v>
       </c>
       <c r="AD132" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AF132" s="16" t="s">
         <v>595</v>
@@ -22237,13 +22240,13 @@
         <v>137</v>
       </c>
       <c r="AL132" s="16" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AM132" s="16" t="s">
         <v>236</v>
       </c>
       <c r="AO132" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AQ132" s="16" t="s">
         <v>167</v>
@@ -22264,21 +22267,21 @@
         <v>212</v>
       </c>
       <c r="AX132" s="16" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="133" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E133" s="12">
         <v>2007</v>
@@ -22299,10 +22302,10 @@
         <v>908</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M133" s="12" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="N133" s="12" t="s">
         <v>249</v>
@@ -22335,7 +22338,7 @@
         <v>219</v>
       </c>
       <c r="Z133" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AA133" s="12">
         <v>3</v>
@@ -22347,7 +22350,7 @@
         <v>3</v>
       </c>
       <c r="AD133" s="12" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AF133" s="12" t="s">
         <v>595</v>
@@ -22365,13 +22368,13 @@
         <v>137</v>
       </c>
       <c r="AL133" s="12" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AM133" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AO133" s="12" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AQ133" s="12" t="s">
         <v>167</v>
@@ -22383,7 +22386,7 @@
         <v>179</v>
       </c>
       <c r="AU133" s="16" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AV133" s="12" t="s">
         <v>208</v>
@@ -22392,21 +22395,21 @@
         <v>212</v>
       </c>
       <c r="AX133" s="18" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="134" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B134" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E134" s="12">
         <v>2007</v>
@@ -22427,10 +22430,10 @@
         <v>908</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M134" s="12" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="N134" s="12" t="s">
         <v>249</v>
@@ -22463,7 +22466,7 @@
         <v>219</v>
       </c>
       <c r="Z134" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AA134" s="12">
         <v>3</v>
@@ -22475,7 +22478,7 @@
         <v>3</v>
       </c>
       <c r="AD134" s="12" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AF134" s="12" t="s">
         <v>595</v>
@@ -22493,13 +22496,13 @@
         <v>137</v>
       </c>
       <c r="AL134" s="12" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AM134" s="12" t="s">
         <v>236</v>
       </c>
       <c r="AO134" s="12" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AQ134" s="12" t="s">
         <v>167</v>
@@ -22511,7 +22514,7 @@
         <v>179</v>
       </c>
       <c r="AU134" s="12" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AV134" s="12" t="s">
         <v>208</v>
@@ -22520,21 +22523,21 @@
         <v>212</v>
       </c>
       <c r="AX134" s="12" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="135" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E135" s="12">
         <v>2007</v>
@@ -22555,10 +22558,10 @@
         <v>440</v>
       </c>
       <c r="K135" s="12" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M135" s="12" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="N135" s="12" t="s">
         <v>249</v>
@@ -22600,7 +22603,7 @@
         <v>3</v>
       </c>
       <c r="AD135" s="12" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AF135" s="12">
         <v>4.3</v>
@@ -22615,7 +22618,7 @@
         <v>151</v>
       </c>
       <c r="AL135" s="12" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AM135" s="12" t="s">
         <v>236</v>
@@ -22633,7 +22636,7 @@
         <v>178</v>
       </c>
       <c r="AU135" s="12" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AV135" s="12" t="s">
         <v>116</v>
@@ -22642,21 +22645,21 @@
         <v>212</v>
       </c>
       <c r="AX135" s="12" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="136" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E136" s="12">
         <v>2007</v>
@@ -22677,10 +22680,10 @@
         <v>440</v>
       </c>
       <c r="K136" s="12" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M136" s="12" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="N136" s="12" t="s">
         <v>249</v>
@@ -22722,7 +22725,7 @@
         <v>1</v>
       </c>
       <c r="AD136" s="12" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AF136" s="12">
         <v>4.3</v>
@@ -22737,7 +22740,7 @@
         <v>151</v>
       </c>
       <c r="AL136" s="12" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AM136" s="12" t="s">
         <v>236</v>
@@ -22755,7 +22758,7 @@
         <v>178</v>
       </c>
       <c r="AU136" s="12" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AV136" s="12" t="s">
         <v>116</v>
@@ -22764,21 +22767,21 @@
         <v>212</v>
       </c>
       <c r="AX136" s="12" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="137" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B137" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E137" s="12">
         <v>2007</v>
@@ -22799,10 +22802,10 @@
         <v>504</v>
       </c>
       <c r="K137" s="12" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="M137" s="12" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="N137" s="12" t="s">
         <v>249</v>
@@ -22847,7 +22850,7 @@
         <v>3</v>
       </c>
       <c r="AD137" s="12" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AF137" s="12">
         <v>4.4000000000000004</v>
@@ -22865,19 +22868,19 @@
         <v>235</v>
       </c>
       <c r="AO137" s="12" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AP137" s="12" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AQ137" s="12" t="s">
         <v>168</v>
       </c>
       <c r="AT137" s="12" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AU137" s="12" t="s">
         <v>1035</v>
-      </c>
-      <c r="AU137" s="12" t="s">
-        <v>1036</v>
       </c>
       <c r="AV137" s="12" t="s">
         <v>208</v>
@@ -22886,21 +22889,21 @@
         <v>210</v>
       </c>
       <c r="AX137" s="12" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="138" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E138" s="12">
         <v>2007</v>
@@ -22921,10 +22924,10 @@
         <v>504</v>
       </c>
       <c r="K138" s="12" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="M138" s="12" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="N138" s="12" t="s">
         <v>249</v>
@@ -22969,7 +22972,7 @@
         <v>3</v>
       </c>
       <c r="AD138" s="12" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AF138" s="12">
         <v>4.4000000000000004</v>
@@ -22984,25 +22987,25 @@
         <v>141</v>
       </c>
       <c r="AL138" s="12" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AM138" s="12" t="s">
         <v>235</v>
       </c>
       <c r="AO138" s="16" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AP138" s="12" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AQ138" s="12" t="s">
         <v>168</v>
       </c>
       <c r="AT138" s="12" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AU138" s="12" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AV138" s="12" t="s">
         <v>203</v>
@@ -23011,27 +23014,27 @@
         <v>210</v>
       </c>
       <c r="AX138" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="139" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E139" s="12">
         <v>2006</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G139" s="12">
         <v>11</v>
@@ -23046,7 +23049,7 @@
         <v>25</v>
       </c>
       <c r="M139" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="N139" s="12" t="s">
         <v>249</v>
@@ -23066,16 +23069,16 @@
     </row>
     <row r="140" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C140" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D140" s="12" t="s">
         <v>1043</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>1044</v>
       </c>
       <c r="E140" s="12">
         <v>1996</v>
@@ -23096,10 +23099,10 @@
         <v>307</v>
       </c>
       <c r="K140" s="12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M140" s="12" t="s">
         <v>1045</v>
-      </c>
-      <c r="M140" s="12" t="s">
-        <v>1046</v>
       </c>
       <c r="N140" s="12" t="s">
         <v>249</v>
@@ -23132,7 +23135,7 @@
         <v>219</v>
       </c>
       <c r="Z140" s="12" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AA140" s="12">
         <v>2</v>
@@ -23144,7 +23147,7 @@
         <v>3</v>
       </c>
       <c r="AD140" s="12" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AF140" s="12" t="s">
         <v>109</v>
@@ -23165,7 +23168,7 @@
         <v>151</v>
       </c>
       <c r="AL140" s="12" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AM140" s="12" t="s">
         <v>236</v>
@@ -23183,7 +23186,7 @@
         <v>179</v>
       </c>
       <c r="AU140" s="12" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AV140" s="12" t="s">
         <v>241</v>
@@ -23192,21 +23195,21 @@
         <v>210</v>
       </c>
       <c r="AX140" s="12" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="141" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C141" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D141" s="12" t="s">
         <v>1043</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>1044</v>
       </c>
       <c r="E141" s="12">
         <v>1996</v>
@@ -23227,11 +23230,11 @@
         <v>307</v>
       </c>
       <c r="K141" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L141" s="12"/>
       <c r="M141" s="12" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N141" s="12" t="s">
         <v>249</v>
@@ -23278,7 +23281,7 @@
         <v>1</v>
       </c>
       <c r="AD141" s="12" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AE141" s="12"/>
       <c r="AF141" s="12" t="s">
@@ -23315,7 +23318,7 @@
       </c>
       <c r="AT141" s="12"/>
       <c r="AU141" s="12" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AV141" s="12" t="s">
         <v>116</v>
@@ -23324,27 +23327,27 @@
         <v>210</v>
       </c>
       <c r="AX141" s="12" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="142" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C142" s="12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D142" s="12" t="s">
         <v>1048</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>1049</v>
       </c>
       <c r="E142" s="12">
         <v>1996</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G142" s="12">
         <v>6</v>
@@ -23359,11 +23362,11 @@
         <v>442</v>
       </c>
       <c r="K142" s="12" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L142" s="12"/>
       <c r="M142" s="12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="N142" s="12" t="s">
         <v>249</v>
@@ -23379,7 +23382,7 @@
         <v>86</v>
       </c>
       <c r="AF142" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AG142" s="12"/>
       <c r="AH142" s="12"/>
@@ -23401,22 +23404,22 @@
     </row>
     <row r="143" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C143" s="12" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D143" s="12" t="s">
         <v>1054</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>1055</v>
       </c>
       <c r="E143" s="12">
         <v>1993</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G143" s="12">
         <v>35</v>
@@ -23431,11 +23434,11 @@
         <v>294</v>
       </c>
       <c r="K143" s="12" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L143" s="12"/>
       <c r="M143" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="N143" s="12" t="s">
         <v>249</v>
@@ -23473,16 +23476,16 @@
     </row>
     <row r="144" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C144" s="12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D144" s="12" t="s">
         <v>1060</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>1061</v>
       </c>
       <c r="E144" s="12">
         <v>1993</v>
@@ -23503,11 +23506,11 @@
         <v>159</v>
       </c>
       <c r="K144" s="12" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="L144" s="12"/>
       <c r="M144" s="12" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="N144" s="12" t="s">
         <v>249</v>
@@ -23523,7 +23526,7 @@
         <v>86</v>
       </c>
       <c r="AF144" s="12" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AG144" s="12"/>
       <c r="AH144" s="12"/>
@@ -23545,22 +23548,22 @@
     </row>
     <row r="145" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B145" s="14" t="s">
         <v>243</v>
       </c>
       <c r="C145" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D145" s="14" t="s">
         <v>1065</v>
-      </c>
-      <c r="D145" s="14" t="s">
-        <v>1066</v>
       </c>
       <c r="E145" s="14">
         <v>1992</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G145" s="14">
         <v>80</v>
@@ -23575,7 +23578,7 @@
         <v>113</v>
       </c>
       <c r="M145" s="14" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="N145" s="14" t="s">
         <v>249</v>
@@ -23617,10 +23620,10 @@
         <v>2</v>
       </c>
       <c r="AD145" s="14" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AF145" s="14" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AG145" s="14" t="s">
         <v>112</v>
@@ -23632,14 +23635,14 @@
       <c r="AJ145" s="16"/>
       <c r="AK145" s="16"/>
       <c r="AL145" s="16" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AM145" s="16" t="s">
         <v>162</v>
       </c>
       <c r="AN145" s="16"/>
       <c r="AO145" s="16" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AP145" s="16"/>
       <c r="AQ145" s="16" t="s">
@@ -23649,7 +23652,7 @@
       <c r="AS145" s="16"/>
       <c r="AT145" s="16"/>
       <c r="AU145" s="16" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AV145" s="16" t="s">
         <v>240</v>
@@ -23658,27 +23661,27 @@
         <v>210</v>
       </c>
       <c r="AX145" s="16" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="146" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B146" s="14" t="s">
         <v>243</v>
       </c>
       <c r="C146" s="14" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D146" s="14" t="s">
         <v>1070</v>
-      </c>
-      <c r="D146" s="14" t="s">
-        <v>1071</v>
       </c>
       <c r="E146" s="14">
         <v>1992</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G146" s="14">
         <v>39</v>
@@ -23693,7 +23696,7 @@
         <v>871</v>
       </c>
       <c r="M146" s="14" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="N146" s="14" t="s">
         <v>249</v>
@@ -23735,10 +23738,10 @@
         <v>3</v>
       </c>
       <c r="AD146" s="14" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AF146" s="14" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AG146" s="14" t="s">
         <v>112</v>
@@ -23750,7 +23753,7 @@
         <v>141</v>
       </c>
       <c r="AL146" s="14" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AM146" s="14" t="s">
         <v>235</v>
@@ -23759,10 +23762,10 @@
         <v>165</v>
       </c>
       <c r="AO146" s="14" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AP146" s="14" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AQ146" s="14" t="s">
         <v>167</v>
@@ -23771,7 +23774,7 @@
         <v>596</v>
       </c>
       <c r="AT146" s="14" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AU146" s="14" t="s">
         <v>683</v>
@@ -23783,27 +23786,27 @@
         <v>211</v>
       </c>
       <c r="AX146" s="14" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="147" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B147" s="14" t="s">
         <v>243</v>
       </c>
       <c r="C147" s="14" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D147" s="14" t="s">
         <v>1070</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>1071</v>
       </c>
       <c r="E147" s="14">
         <v>1992</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G147" s="14">
         <v>39</v>
@@ -23818,7 +23821,7 @@
         <v>871</v>
       </c>
       <c r="M147" s="14" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="N147" s="14" t="s">
         <v>249</v>
@@ -23860,10 +23863,10 @@
         <v>3</v>
       </c>
       <c r="AD147" s="14" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AF147" s="14" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AG147" s="14" t="s">
         <v>112</v>
@@ -23875,7 +23878,7 @@
         <v>141</v>
       </c>
       <c r="AL147" s="14" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AM147" s="14" t="s">
         <v>235</v>
@@ -23884,10 +23887,10 @@
         <v>165</v>
       </c>
       <c r="AO147" s="14" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AP147" s="14" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AQ147" s="14" t="s">
         <v>167</v>
@@ -23896,10 +23899,10 @@
         <v>596</v>
       </c>
       <c r="AT147" s="14" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AU147" s="14" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AV147" s="14" t="s">
         <v>203</v>
@@ -23908,27 +23911,27 @@
         <v>211</v>
       </c>
       <c r="AX147" s="14" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="148" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B148" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C148" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D148" s="12" t="s">
         <v>1075</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>1076</v>
       </c>
       <c r="E148" s="12">
         <v>1964</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G148" s="12">
         <v>10</v>
@@ -23943,11 +23946,11 @@
         <v>342</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="L148" s="12"/>
       <c r="M148" s="12" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="N148" s="12" t="s">
         <v>249</v>
@@ -23987,22 +23990,22 @@
     </row>
     <row r="149" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B149" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C149" s="12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D149" s="12" t="s">
         <v>1081</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>1082</v>
       </c>
       <c r="E149" s="12">
         <v>2020</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G149" s="12">
         <v>77</v>
@@ -24017,10 +24020,10 @@
         <v>1665</v>
       </c>
       <c r="K149" s="12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="M149" s="12" t="s">
         <v>1084</v>
-      </c>
-      <c r="M149" s="12" t="s">
-        <v>1085</v>
       </c>
       <c r="N149" s="12" t="s">
         <v>249</v>
@@ -24029,7 +24032,7 @@
         <v>250</v>
       </c>
       <c r="P149" s="12" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="Q149" s="12" t="s">
         <v>22</v>
@@ -24053,10 +24056,10 @@
         <v>116</v>
       </c>
       <c r="Y149" s="12" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Z149" s="12" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AA149" s="12">
         <v>3</v>
@@ -24068,7 +24071,7 @@
         <v>3</v>
       </c>
       <c r="AD149" s="12" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AF149" s="12" t="s">
         <v>595</v>
@@ -24086,7 +24089,7 @@
         <v>144</v>
       </c>
       <c r="AL149" s="12" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AM149" s="12" t="s">
         <v>236</v>
@@ -24095,7 +24098,7 @@
         <v>696</v>
       </c>
       <c r="AP149" s="12" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AQ149" s="12" t="s">
         <v>167</v>
@@ -24104,7 +24107,7 @@
         <v>597</v>
       </c>
       <c r="AU149" s="12" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AV149" s="12" t="s">
         <v>203</v>
@@ -24113,27 +24116,27 @@
         <v>212</v>
       </c>
       <c r="AX149" s="12" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="150" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C150" s="12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D150" s="12" t="s">
         <v>1081</v>
-      </c>
-      <c r="D150" s="12" t="s">
-        <v>1082</v>
       </c>
       <c r="E150" s="12">
         <v>2020</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G150" s="12">
         <v>77</v>
@@ -24148,10 +24151,10 @@
         <v>1665</v>
       </c>
       <c r="K150" s="12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="M150" s="12" t="s">
         <v>1084</v>
-      </c>
-      <c r="M150" s="12" t="s">
-        <v>1085</v>
       </c>
       <c r="N150" s="12" t="s">
         <v>249</v>
@@ -24160,7 +24163,7 @@
         <v>250</v>
       </c>
       <c r="P150" s="12" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="Q150" s="12" t="s">
         <v>22</v>
@@ -24184,7 +24187,7 @@
         <v>219</v>
       </c>
       <c r="Z150" s="12" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AA150" s="12">
         <v>3</v>
@@ -24196,7 +24199,7 @@
         <v>3</v>
       </c>
       <c r="AD150" s="12" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AF150" s="12" t="s">
         <v>595</v>
@@ -24217,7 +24220,7 @@
         <v>144</v>
       </c>
       <c r="AL150" s="12" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AM150" s="12" t="s">
         <v>236</v>
@@ -24226,7 +24229,7 @@
         <v>696</v>
       </c>
       <c r="AP150" s="12" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AQ150" s="12" t="s">
         <v>167</v>
@@ -24235,7 +24238,7 @@
         <v>597</v>
       </c>
       <c r="AU150" s="12" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AV150" s="12" t="s">
         <v>203</v>
@@ -24244,27 +24247,27 @@
         <v>212</v>
       </c>
       <c r="AX150" s="12" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="151" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B151" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C151" s="12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D151" s="12" t="s">
         <v>1081</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>1082</v>
       </c>
       <c r="E151" s="12">
         <v>2020</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G151" s="12">
         <v>77</v>
@@ -24279,11 +24282,11 @@
         <v>1665</v>
       </c>
       <c r="K151" s="12" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="L151" s="12"/>
       <c r="M151" s="12" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="N151" s="12" t="s">
         <v>249</v>
@@ -24292,7 +24295,7 @@
         <v>250</v>
       </c>
       <c r="P151" s="12" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="Q151" s="12" t="s">
         <v>22</v>
@@ -24317,7 +24320,7 @@
         <v>219</v>
       </c>
       <c r="Z151" s="12" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AA151">
         <v>3</v>
@@ -24329,7 +24332,7 @@
         <v>3</v>
       </c>
       <c r="AD151" s="12" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AF151" s="12" t="s">
         <v>595</v>
@@ -24346,7 +24349,7 @@
       <c r="AJ151" s="12"/>
       <c r="AK151" s="12"/>
       <c r="AL151" s="12" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AM151" s="12" t="s">
         <v>236</v>
@@ -24356,7 +24359,7 @@
         <v>696</v>
       </c>
       <c r="AP151" s="12" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AQ151" s="12" t="s">
         <v>167</v>
@@ -24367,7 +24370,7 @@
       <c r="AS151" s="12"/>
       <c r="AT151" s="12"/>
       <c r="AU151" s="12" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AV151" s="12" t="s">
         <v>203</v>
@@ -24376,27 +24379,27 @@
         <v>212</v>
       </c>
       <c r="AX151" s="12" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="152" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B152" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C152" s="12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D152" s="12" t="s">
         <v>1088</v>
-      </c>
-      <c r="D152" s="12" t="s">
-        <v>1089</v>
       </c>
       <c r="E152" s="12">
         <v>2019</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G152" s="12">
         <v>826</v>
@@ -24411,11 +24414,11 @@
         <v>290</v>
       </c>
       <c r="K152" s="12" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="L152" s="12"/>
       <c r="M152" s="12" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="N152" s="12" t="s">
         <v>249</v>
@@ -24424,7 +24427,7 @@
         <v>250</v>
       </c>
       <c r="P152" s="12" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="Q152" s="12" t="s">
         <v>22</v>
@@ -24461,7 +24464,7 @@
         <v>3</v>
       </c>
       <c r="AD152" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AF152" s="12" t="s">
         <v>109</v>
@@ -24482,7 +24485,7 @@
         <v>153</v>
       </c>
       <c r="AL152" s="12" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AM152" s="12" t="s">
         <v>235</v>
@@ -24491,10 +24494,10 @@
         <v>163</v>
       </c>
       <c r="AO152" s="12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AP152" s="12" t="s">
         <v>1119</v>
-      </c>
-      <c r="AP152" s="12" t="s">
-        <v>1120</v>
       </c>
       <c r="AQ152" s="12" t="s">
         <v>167</v>
@@ -24504,10 +24507,10 @@
       </c>
       <c r="AS152" s="12"/>
       <c r="AT152" s="12" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AU152" s="12" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AV152" s="12" t="s">
         <v>202</v>
@@ -24516,21 +24519,21 @@
         <v>212</v>
       </c>
       <c r="AX152" s="12" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="153" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B153" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C153" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D153" s="16" t="s">
         <v>1125</v>
-      </c>
-      <c r="D153" s="16" t="s">
-        <v>1126</v>
       </c>
       <c r="E153" s="16">
         <v>2002</v>
@@ -24551,10 +24554,10 @@
         <v>184</v>
       </c>
       <c r="K153" s="16" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M153" s="16" t="s">
         <v>1127</v>
-      </c>
-      <c r="M153" s="16" t="s">
-        <v>1128</v>
       </c>
       <c r="N153" s="16" t="s">
         <v>249</v>
@@ -24584,7 +24587,7 @@
         <v>219</v>
       </c>
       <c r="Z153" s="16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AA153" s="16">
         <v>2</v>
@@ -24596,7 +24599,7 @@
         <v>3</v>
       </c>
       <c r="AD153" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AF153" s="16">
         <v>4.3</v>
@@ -24614,7 +24617,7 @@
         <v>236</v>
       </c>
       <c r="AO153" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AQ153" s="16" t="s">
         <v>167</v>
@@ -24626,7 +24629,7 @@
         <v>181</v>
       </c>
       <c r="AT153" s="16" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AU153" s="16" t="s">
         <v>209</v>
@@ -24638,21 +24641,21 @@
         <v>211</v>
       </c>
       <c r="AX153" s="16" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="154" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B154" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C154" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D154" s="16" t="s">
         <v>1125</v>
-      </c>
-      <c r="D154" s="16" t="s">
-        <v>1126</v>
       </c>
       <c r="E154" s="16">
         <v>2002</v>
@@ -24673,10 +24676,10 @@
         <v>184</v>
       </c>
       <c r="K154" s="16" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M154" s="16" t="s">
         <v>1127</v>
-      </c>
-      <c r="M154" s="16" t="s">
-        <v>1128</v>
       </c>
       <c r="N154" s="16" t="s">
         <v>249</v>
@@ -24706,7 +24709,7 @@
         <v>219</v>
       </c>
       <c r="Z154" s="16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AA154" s="16">
         <v>2</v>
@@ -24718,7 +24721,7 @@
         <v>3</v>
       </c>
       <c r="AD154" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AF154" s="16">
         <v>4.3</v>
@@ -24736,7 +24739,7 @@
         <v>236</v>
       </c>
       <c r="AO154" s="16" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AQ154" s="16" t="s">
         <v>167</v>
@@ -24748,7 +24751,7 @@
         <v>181</v>
       </c>
       <c r="AT154" s="16" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AU154" s="16" t="s">
         <v>209</v>
@@ -24760,21 +24763,21 @@
         <v>211</v>
       </c>
       <c r="AX154" s="16" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="155" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B155" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C155" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D155" s="16" t="s">
         <v>1125</v>
-      </c>
-      <c r="D155" s="16" t="s">
-        <v>1126</v>
       </c>
       <c r="E155" s="16">
         <v>2002</v>
@@ -24795,10 +24798,10 @@
         <v>184</v>
       </c>
       <c r="K155" s="16" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M155" s="16" t="s">
         <v>1127</v>
-      </c>
-      <c r="M155" s="16" t="s">
-        <v>1128</v>
       </c>
       <c r="N155" s="16" t="s">
         <v>249</v>
@@ -24828,7 +24831,7 @@
         <v>219</v>
       </c>
       <c r="Z155" s="16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AA155" s="16">
         <v>2</v>
@@ -24840,7 +24843,7 @@
         <v>3</v>
       </c>
       <c r="AD155" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AF155" s="16">
         <v>4.3</v>
@@ -24858,7 +24861,7 @@
         <v>236</v>
       </c>
       <c r="AO155" s="16" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AQ155" s="16" t="s">
         <v>167</v>
@@ -24870,7 +24873,7 @@
         <v>181</v>
       </c>
       <c r="AT155" s="16" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AU155" s="16" t="s">
         <v>209</v>
@@ -24882,21 +24885,21 @@
         <v>211</v>
       </c>
       <c r="AX155" s="16" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="156" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B156" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C156" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D156" s="16" t="s">
         <v>1125</v>
-      </c>
-      <c r="D156" s="16" t="s">
-        <v>1126</v>
       </c>
       <c r="E156" s="16">
         <v>2002</v>
@@ -24917,10 +24920,10 @@
         <v>184</v>
       </c>
       <c r="K156" s="16" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M156" s="16" t="s">
         <v>1127</v>
-      </c>
-      <c r="M156" s="16" t="s">
-        <v>1128</v>
       </c>
       <c r="N156" s="16" t="s">
         <v>249</v>
@@ -24950,7 +24953,7 @@
         <v>219</v>
       </c>
       <c r="Z156" s="16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AA156" s="16">
         <v>2</v>
@@ -24962,7 +24965,7 @@
         <v>3</v>
       </c>
       <c r="AD156" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AF156" s="16">
         <v>4.3</v>
@@ -24980,7 +24983,7 @@
         <v>236</v>
       </c>
       <c r="AO156" s="16" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AQ156" s="16" t="s">
         <v>167</v>
@@ -24992,7 +24995,7 @@
         <v>181</v>
       </c>
       <c r="AT156" s="16" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AU156" s="16" t="s">
         <v>209</v>
@@ -25004,21 +25007,21 @@
         <v>211</v>
       </c>
       <c r="AX156" s="16" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="157" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B157" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C157" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D157" s="16" t="s">
         <v>1125</v>
-      </c>
-      <c r="D157" s="16" t="s">
-        <v>1126</v>
       </c>
       <c r="E157" s="16">
         <v>2002</v>
@@ -25039,10 +25042,10 @@
         <v>184</v>
       </c>
       <c r="K157" s="16" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M157" s="16" t="s">
         <v>1127</v>
-      </c>
-      <c r="M157" s="16" t="s">
-        <v>1128</v>
       </c>
       <c r="N157" s="16" t="s">
         <v>249</v>
@@ -25072,7 +25075,7 @@
         <v>219</v>
       </c>
       <c r="Z157" s="16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AA157" s="16">
         <v>2</v>
@@ -25084,7 +25087,7 @@
         <v>3</v>
       </c>
       <c r="AD157" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AF157" s="16">
         <v>4.3</v>
@@ -25102,7 +25105,7 @@
         <v>236</v>
       </c>
       <c r="AO157" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AQ157" s="16" t="s">
         <v>167</v>
@@ -25114,10 +25117,10 @@
         <v>181</v>
       </c>
       <c r="AT157" s="16" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AU157" s="16" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AV157" s="16" t="s">
         <v>208</v>
@@ -25126,21 +25129,21 @@
         <v>213</v>
       </c>
       <c r="AX157" s="16" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="158" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B158" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C158" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D158" s="16" t="s">
         <v>1125</v>
-      </c>
-      <c r="D158" s="16" t="s">
-        <v>1126</v>
       </c>
       <c r="E158" s="16">
         <v>2002</v>
@@ -25161,10 +25164,10 @@
         <v>184</v>
       </c>
       <c r="K158" s="16" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M158" s="16" t="s">
         <v>1127</v>
-      </c>
-      <c r="M158" s="16" t="s">
-        <v>1128</v>
       </c>
       <c r="N158" s="16" t="s">
         <v>249</v>
@@ -25194,7 +25197,7 @@
         <v>219</v>
       </c>
       <c r="Z158" s="16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AA158" s="16">
         <v>2</v>
@@ -25206,7 +25209,7 @@
         <v>3</v>
       </c>
       <c r="AD158" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AF158" s="16">
         <v>4.3</v>
@@ -25224,7 +25227,7 @@
         <v>236</v>
       </c>
       <c r="AO158" s="16" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AQ158" s="16" t="s">
         <v>167</v>
@@ -25236,10 +25239,10 @@
         <v>181</v>
       </c>
       <c r="AT158" s="16" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AU158" s="16" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AV158" s="16" t="s">
         <v>208</v>
@@ -25248,21 +25251,21 @@
         <v>213</v>
       </c>
       <c r="AX158" s="16" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="159" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B159" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C159" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D159" s="16" t="s">
         <v>1125</v>
-      </c>
-      <c r="D159" s="16" t="s">
-        <v>1126</v>
       </c>
       <c r="E159" s="16">
         <v>2002</v>
@@ -25283,10 +25286,10 @@
         <v>184</v>
       </c>
       <c r="K159" s="16" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M159" s="16" t="s">
         <v>1127</v>
-      </c>
-      <c r="M159" s="16" t="s">
-        <v>1128</v>
       </c>
       <c r="N159" s="16" t="s">
         <v>249</v>
@@ -25316,7 +25319,7 @@
         <v>219</v>
       </c>
       <c r="Z159" s="16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AA159" s="16">
         <v>2</v>
@@ -25328,7 +25331,7 @@
         <v>3</v>
       </c>
       <c r="AD159" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AF159" s="16">
         <v>4.3</v>
@@ -25346,7 +25349,7 @@
         <v>236</v>
       </c>
       <c r="AO159" s="16" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AQ159" s="16" t="s">
         <v>167</v>
@@ -25358,10 +25361,10 @@
         <v>181</v>
       </c>
       <c r="AT159" s="16" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AU159" s="16" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AV159" s="16" t="s">
         <v>208</v>
@@ -25370,21 +25373,21 @@
         <v>213</v>
       </c>
       <c r="AX159" s="16" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="160" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B160" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C160" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D160" s="16" t="s">
         <v>1125</v>
-      </c>
-      <c r="D160" s="16" t="s">
-        <v>1126</v>
       </c>
       <c r="E160" s="16">
         <v>2002</v>
@@ -25405,11 +25408,11 @@
         <v>184</v>
       </c>
       <c r="K160" s="16" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="L160" s="16"/>
       <c r="M160" s="16" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="N160" s="16" t="s">
         <v>249</v>
@@ -25442,7 +25445,7 @@
       </c>
       <c r="Y160" s="16"/>
       <c r="Z160" s="16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AA160" s="16">
         <v>2</v>
@@ -25454,7 +25457,7 @@
         <v>3</v>
       </c>
       <c r="AD160" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AE160" s="16"/>
       <c r="AF160" s="16">
@@ -25477,7 +25480,7 @@
       </c>
       <c r="AN160" s="16"/>
       <c r="AO160" s="16" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AP160" s="16"/>
       <c r="AQ160" s="16" t="s">
@@ -25490,10 +25493,10 @@
         <v>181</v>
       </c>
       <c r="AT160" s="16" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AU160" s="16" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AV160" s="16" t="s">
         <v>208</v>
@@ -25502,28 +25505,28 @@
         <v>213</v>
       </c>
       <c r="AX160" s="16" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AY160" s="16"/>
     </row>
     <row r="161" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B161" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C161" s="16" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D161" s="16" t="s">
         <v>1130</v>
-      </c>
-      <c r="D161" s="16" t="s">
-        <v>1131</v>
       </c>
       <c r="E161" s="16">
         <v>2002</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G161" s="16">
         <v>15</v>
@@ -25538,11 +25541,11 @@
         <v>437</v>
       </c>
       <c r="K161" s="16" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="L161" s="16"/>
       <c r="M161" s="16" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="N161" s="16" t="s">
         <v>249</v>
@@ -25594,16 +25597,16 @@
     </row>
     <row r="162" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B162" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C162" s="16" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D162" s="16" t="s">
         <v>1136</v>
-      </c>
-      <c r="D162" s="16" t="s">
-        <v>1137</v>
       </c>
       <c r="E162" s="16">
         <v>2002</v>
@@ -25624,10 +25627,10 @@
         <v>1214</v>
       </c>
       <c r="K162" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M162" s="16" t="s">
         <v>1138</v>
-      </c>
-      <c r="M162" s="16" t="s">
-        <v>1139</v>
       </c>
       <c r="N162" s="16" t="s">
         <v>249</v>
@@ -25660,7 +25663,7 @@
         <v>219</v>
       </c>
       <c r="Z162" s="16" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AA162" s="16">
         <v>3</v>
@@ -25672,7 +25675,7 @@
         <v>3</v>
       </c>
       <c r="AD162" s="16" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AF162" s="16">
         <v>4.3</v>
@@ -25696,10 +25699,10 @@
         <v>236</v>
       </c>
       <c r="AO162" s="16" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AP162" s="16" t="s">
         <v>1185</v>
-      </c>
-      <c r="AP162" s="16" t="s">
-        <v>1186</v>
       </c>
       <c r="AQ162" s="16" t="s">
         <v>167</v>
@@ -25720,21 +25723,21 @@
         <v>211</v>
       </c>
       <c r="AX162" s="16" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="163" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B163" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C163" s="16" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D163" s="16" t="s">
         <v>1136</v>
-      </c>
-      <c r="D163" s="16" t="s">
-        <v>1137</v>
       </c>
       <c r="E163" s="16">
         <v>2002</v>
@@ -25755,10 +25758,10 @@
         <v>1214</v>
       </c>
       <c r="K163" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M163" s="16" t="s">
         <v>1138</v>
-      </c>
-      <c r="M163" s="16" t="s">
-        <v>1139</v>
       </c>
       <c r="N163" s="16" t="s">
         <v>249</v>
@@ -25791,7 +25794,7 @@
         <v>219</v>
       </c>
       <c r="Z163" s="16" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AA163" s="16">
         <v>3</v>
@@ -25803,7 +25806,7 @@
         <v>3</v>
       </c>
       <c r="AD163" s="16" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AF163" s="16">
         <v>4.3</v>
@@ -25827,10 +25830,10 @@
         <v>236</v>
       </c>
       <c r="AO163" s="16" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AP163" s="16" t="s">
         <v>1185</v>
-      </c>
-      <c r="AP163" s="16" t="s">
-        <v>1186</v>
       </c>
       <c r="AQ163" s="16" t="s">
         <v>167</v>
@@ -25851,21 +25854,21 @@
         <v>211</v>
       </c>
       <c r="AX163" s="16" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="164" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B164" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C164" s="16" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D164" s="16" t="s">
         <v>1136</v>
-      </c>
-      <c r="D164" s="16" t="s">
-        <v>1137</v>
       </c>
       <c r="E164" s="16">
         <v>2002</v>
@@ -25886,11 +25889,11 @@
         <v>1214</v>
       </c>
       <c r="K164" s="16" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="L164" s="16"/>
       <c r="M164" s="16" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="N164" s="16" t="s">
         <v>249</v>
@@ -25925,7 +25928,7 @@
       </c>
       <c r="Y164" s="16"/>
       <c r="Z164" s="16" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AA164" s="16">
         <v>3</v>
@@ -25937,7 +25940,7 @@
         <v>3</v>
       </c>
       <c r="AD164" s="16" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AE164" s="16"/>
       <c r="AF164" s="16">
@@ -25960,10 +25963,10 @@
       </c>
       <c r="AN164" s="12"/>
       <c r="AO164" s="12" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AP164" s="12" t="s">
         <v>1185</v>
-      </c>
-      <c r="AP164" s="12" t="s">
-        <v>1186</v>
       </c>
       <c r="AQ164" s="16" t="s">
         <v>167</v>
@@ -25985,21 +25988,21 @@
         <v>212</v>
       </c>
       <c r="AX164" s="12" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="165" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B165" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C165" s="16" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D165" s="16" t="s">
         <v>1136</v>
-      </c>
-      <c r="D165" s="16" t="s">
-        <v>1137</v>
       </c>
       <c r="E165" s="16">
         <v>2002</v>
@@ -26020,10 +26023,10 @@
         <v>1214</v>
       </c>
       <c r="K165" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M165" s="16" t="s">
         <v>1138</v>
-      </c>
-      <c r="M165" s="16" t="s">
-        <v>1139</v>
       </c>
       <c r="N165" s="16" t="s">
         <v>249</v>
@@ -26056,7 +26059,7 @@
         <v>219</v>
       </c>
       <c r="Z165" s="16" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AA165" s="16">
         <v>3</v>
@@ -26068,7 +26071,7 @@
         <v>3</v>
       </c>
       <c r="AD165" s="16" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AF165" s="16">
         <v>4.3</v>
@@ -26086,10 +26089,10 @@
         <v>236</v>
       </c>
       <c r="AO165" s="16" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AP165" s="16" t="s">
         <v>1185</v>
-      </c>
-      <c r="AP165" s="16" t="s">
-        <v>1186</v>
       </c>
       <c r="AQ165" s="16" t="s">
         <v>167</v>
@@ -26110,21 +26113,21 @@
         <v>212</v>
       </c>
       <c r="AX165" s="16" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="166" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B166" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C166" s="16" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D166" s="16" t="s">
         <v>1141</v>
-      </c>
-      <c r="D166" s="16" t="s">
-        <v>1142</v>
       </c>
       <c r="E166" s="16">
         <v>2002</v>
@@ -26145,10 +26148,10 @@
         <v>824</v>
       </c>
       <c r="K166" s="16" t="s">
+        <v>1142</v>
+      </c>
+      <c r="M166" s="16" t="s">
         <v>1143</v>
-      </c>
-      <c r="M166" s="16" t="s">
-        <v>1144</v>
       </c>
       <c r="N166" s="16" t="s">
         <v>249</v>
@@ -26181,7 +26184,7 @@
         <v>69</v>
       </c>
       <c r="Z166" s="16" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AA166" s="16">
         <v>3</v>
@@ -26193,7 +26196,7 @@
         <v>3</v>
       </c>
       <c r="AD166" s="16" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AF166" s="16">
         <v>4.2</v>
@@ -26220,10 +26223,10 @@
         <v>165</v>
       </c>
       <c r="AO166" s="16" t="s">
-        <v>681</v>
+        <v>1192</v>
       </c>
       <c r="AP166" s="16" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
       <c r="AQ166" s="16" t="s">
         <v>167</v>
@@ -26235,10 +26238,10 @@
         <v>191</v>
       </c>
       <c r="AT166" s="16" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AU166" s="16" t="s">
         <v>1194</v>
-      </c>
-      <c r="AU166" s="16" t="s">
-        <v>1195</v>
       </c>
       <c r="AV166" s="16" t="s">
         <v>202</v>
@@ -26247,21 +26250,21 @@
         <v>213</v>
       </c>
       <c r="AX166" s="16" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="167" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B167" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C167" s="16" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D167" s="16" t="s">
         <v>1141</v>
-      </c>
-      <c r="D167" s="16" t="s">
-        <v>1142</v>
       </c>
       <c r="E167" s="16">
         <v>2002</v>
@@ -26282,11 +26285,11 @@
         <v>824</v>
       </c>
       <c r="K167" s="16" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="L167" s="16"/>
       <c r="M167" s="16" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="N167" s="16" t="s">
         <v>249</v>
@@ -26321,7 +26324,7 @@
       </c>
       <c r="Y167" s="16"/>
       <c r="Z167" s="16" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AA167" s="16">
         <v>3</v>
@@ -26333,7 +26336,7 @@
         <v>3</v>
       </c>
       <c r="AD167" s="16" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AE167" s="16"/>
       <c r="AF167" s="16">
@@ -26351,7 +26354,7 @@
       <c r="AJ167" s="12"/>
       <c r="AK167" s="12"/>
       <c r="AL167" s="16" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AM167" s="12" t="s">
         <v>235</v>
@@ -26360,10 +26363,7 @@
         <v>163</v>
       </c>
       <c r="AO167" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="AP167" s="12" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AQ167" s="12" t="s">
         <v>167</v>
@@ -26375,7 +26375,7 @@
         <v>191</v>
       </c>
       <c r="AT167" s="12" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AU167" s="12" t="s">
         <v>683</v>
@@ -26387,21 +26387,21 @@
         <v>213</v>
       </c>
       <c r="AX167" s="16" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="168" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B168" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C168" s="16" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D168" s="16" t="s">
         <v>1146</v>
-      </c>
-      <c r="D168" s="16" t="s">
-        <v>1147</v>
       </c>
       <c r="E168" s="16">
         <v>2002</v>
@@ -26413,7 +26413,7 @@
         <v>66</v>
       </c>
       <c r="H168" s="16" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I168" s="16">
         <v>39</v>
@@ -26422,11 +26422,11 @@
         <v>54</v>
       </c>
       <c r="K168" s="16" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="L168" s="16"/>
       <c r="M168" s="16" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="N168" s="16" t="s">
         <v>249</v>
@@ -26479,16 +26479,16 @@
     </row>
     <row r="169" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="16" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B169" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C169" s="16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D169" s="16" t="s">
         <v>1152</v>
-      </c>
-      <c r="D169" s="16" t="s">
-        <v>1153</v>
       </c>
       <c r="E169" s="16">
         <v>2000</v>
@@ -26509,16 +26509,16 @@
         <v>1351</v>
       </c>
       <c r="K169" s="16" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M169" s="16" t="s">
         <v>1154</v>
-      </c>
-      <c r="M169" s="16" t="s">
-        <v>1155</v>
       </c>
       <c r="N169" s="16" t="s">
         <v>249</v>
       </c>
       <c r="O169" s="16" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="P169" s="16" t="s">
         <v>299</v>
@@ -26545,7 +26545,7 @@
         <v>116</v>
       </c>
       <c r="Y169" s="16" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Z169" s="16" t="s">
         <v>855</v>
@@ -26560,7 +26560,7 @@
         <v>3</v>
       </c>
       <c r="AD169" s="16" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AF169" s="16">
         <v>4.3</v>
@@ -26581,7 +26581,7 @@
         <v>236</v>
       </c>
       <c r="AO169" s="16" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AQ169" s="16" t="s">
         <v>167</v>
@@ -26593,7 +26593,7 @@
         <v>178</v>
       </c>
       <c r="AU169" s="16" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AV169" s="16" t="s">
         <v>208</v>
@@ -26602,21 +26602,21 @@
         <v>211</v>
       </c>
       <c r="AX169" s="16" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="170" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="16" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B170" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C170" s="16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D170" s="16" t="s">
         <v>1152</v>
-      </c>
-      <c r="D170" s="16" t="s">
-        <v>1153</v>
       </c>
       <c r="E170" s="16">
         <v>2000</v>
@@ -26637,16 +26637,16 @@
         <v>1351</v>
       </c>
       <c r="K170" s="16" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M170" s="16" t="s">
         <v>1154</v>
-      </c>
-      <c r="M170" s="16" t="s">
-        <v>1155</v>
       </c>
       <c r="N170" s="16" t="s">
         <v>249</v>
       </c>
       <c r="O170" s="16" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="P170" s="16" t="s">
         <v>299</v>
@@ -26673,7 +26673,7 @@
         <v>116</v>
       </c>
       <c r="Y170" s="16" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Z170" s="16" t="s">
         <v>855</v>
@@ -26688,7 +26688,7 @@
         <v>3</v>
       </c>
       <c r="AD170" s="16" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AF170" s="16">
         <v>4.3</v>
@@ -26709,7 +26709,7 @@
         <v>236</v>
       </c>
       <c r="AO170" s="16" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AQ170" s="16" t="s">
         <v>167</v>
@@ -26721,7 +26721,7 @@
         <v>178</v>
       </c>
       <c r="AU170" s="16" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AV170" s="16" t="s">
         <v>208</v>
@@ -26730,21 +26730,21 @@
         <v>211</v>
       </c>
       <c r="AX170" s="16" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="171" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B171" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C171" s="16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D171" s="16" t="s">
         <v>1152</v>
-      </c>
-      <c r="D171" s="16" t="s">
-        <v>1153</v>
       </c>
       <c r="E171" s="16">
         <v>2000</v>
@@ -26765,16 +26765,16 @@
         <v>1351</v>
       </c>
       <c r="K171" s="16" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M171" s="16" t="s">
         <v>1154</v>
-      </c>
-      <c r="M171" s="16" t="s">
-        <v>1155</v>
       </c>
       <c r="N171" s="16" t="s">
         <v>249</v>
       </c>
       <c r="O171" s="16" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="P171" s="16" t="s">
         <v>299</v>
@@ -26813,7 +26813,7 @@
         <v>3</v>
       </c>
       <c r="AD171" s="16" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AF171" s="16">
         <v>4.3</v>
@@ -26837,7 +26837,7 @@
         <v>236</v>
       </c>
       <c r="AO171" s="16" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AQ171" s="16" t="s">
         <v>167</v>
@@ -26849,7 +26849,7 @@
         <v>178</v>
       </c>
       <c r="AU171" s="16" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AV171" s="16" t="s">
         <v>202</v>
@@ -26858,21 +26858,21 @@
         <v>211</v>
       </c>
       <c r="AX171" s="16" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="172" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="16" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B172" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C172" s="16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D172" s="16" t="s">
         <v>1152</v>
-      </c>
-      <c r="D172" s="16" t="s">
-        <v>1153</v>
       </c>
       <c r="E172" s="16">
         <v>2000</v>
@@ -26893,16 +26893,16 @@
         <v>1351</v>
       </c>
       <c r="K172" s="16" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M172" s="16" t="s">
         <v>1154</v>
-      </c>
-      <c r="M172" s="16" t="s">
-        <v>1155</v>
       </c>
       <c r="N172" s="16" t="s">
         <v>249</v>
       </c>
       <c r="O172" s="16" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="P172" s="16" t="s">
         <v>299</v>
@@ -26941,7 +26941,7 @@
         <v>3</v>
       </c>
       <c r="AD172" s="16" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AF172" s="16">
         <v>4.3</v>
@@ -26965,7 +26965,7 @@
         <v>236</v>
       </c>
       <c r="AO172" s="16" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AQ172" s="16" t="s">
         <v>167</v>
@@ -26977,7 +26977,7 @@
         <v>178</v>
       </c>
       <c r="AU172" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AV172" s="16" t="s">
         <v>208</v>
@@ -26986,21 +26986,21 @@
         <v>213</v>
       </c>
       <c r="AX172" s="16" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="173" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B173" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C173" s="16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D173" s="16" t="s">
         <v>1152</v>
-      </c>
-      <c r="D173" s="16" t="s">
-        <v>1153</v>
       </c>
       <c r="E173" s="16">
         <v>2000</v>
@@ -27021,17 +27021,17 @@
         <v>1351</v>
       </c>
       <c r="K173" s="16" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="L173" s="16"/>
       <c r="M173" s="16" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="N173" s="16" t="s">
         <v>249</v>
       </c>
       <c r="O173" s="16" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="P173" s="16" t="s">
         <v>299</v>
@@ -27072,7 +27072,7 @@
         <v>3</v>
       </c>
       <c r="AD173" s="16" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AE173" s="16"/>
       <c r="AF173" s="16">
@@ -27099,7 +27099,7 @@
       </c>
       <c r="AN173" s="12"/>
       <c r="AO173" s="16" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AP173" s="12"/>
       <c r="AQ173" s="16" t="s">
@@ -27113,7 +27113,7 @@
       </c>
       <c r="AT173" s="12"/>
       <c r="AU173" s="12" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AV173" s="12" t="s">
         <v>208</v>
@@ -27122,21 +27122,21 @@
         <v>212</v>
       </c>
       <c r="AX173" s="16" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="174" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="16" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B174" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C174" s="16" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D174" s="16" t="s">
         <v>1157</v>
-      </c>
-      <c r="D174" s="16" t="s">
-        <v>1158</v>
       </c>
       <c r="E174" s="16">
         <v>1999</v>
@@ -27157,10 +27157,10 @@
         <v>134</v>
       </c>
       <c r="K174" s="16" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M174" s="16" t="s">
         <v>1159</v>
-      </c>
-      <c r="M174" s="16" t="s">
-        <v>1160</v>
       </c>
       <c r="N174" s="16" t="s">
         <v>249</v>
@@ -27202,7 +27202,7 @@
         <v>3</v>
       </c>
       <c r="AD174" s="16" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="AF174" s="16" t="s">
         <v>109</v>
@@ -27220,7 +27220,7 @@
         <v>236</v>
       </c>
       <c r="AO174" s="16" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AQ174" s="16" t="s">
         <v>167</v>
@@ -27232,7 +27232,7 @@
         <v>178</v>
       </c>
       <c r="AU174" s="16" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AV174" s="16" t="s">
         <v>116</v>
@@ -27241,21 +27241,21 @@
         <v>212</v>
       </c>
       <c r="AX174" s="16" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="175" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B175" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C175" s="16" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D175" s="16" t="s">
         <v>1157</v>
-      </c>
-      <c r="D175" s="16" t="s">
-        <v>1158</v>
       </c>
       <c r="E175" s="16">
         <v>1999</v>
@@ -27276,11 +27276,11 @@
         <v>134</v>
       </c>
       <c r="K175" s="16" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="L175" s="16"/>
       <c r="M175" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="N175" s="16" t="s">
         <v>249</v>
@@ -27325,7 +27325,7 @@
         <v>3</v>
       </c>
       <c r="AD175" s="16" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="AE175" s="16"/>
       <c r="AF175" s="16" t="s">
@@ -27348,7 +27348,7 @@
       </c>
       <c r="AN175" s="12"/>
       <c r="AO175" s="12" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AP175" s="12"/>
       <c r="AQ175" s="12" t="s">
@@ -27362,7 +27362,7 @@
       </c>
       <c r="AT175" s="12"/>
       <c r="AU175" s="16" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AV175" s="12" t="s">
         <v>116</v>
@@ -27371,27 +27371,27 @@
         <v>212</v>
       </c>
       <c r="AX175" s="16" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="176" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B176" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E176" s="16">
         <v>1998</v>
       </c>
       <c r="F176" s="16" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G176" s="16">
         <v>12</v>
@@ -27406,11 +27406,11 @@
         <v>1235</v>
       </c>
       <c r="K176" s="16" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="L176" s="16"/>
       <c r="M176" s="16" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="N176" s="16" t="s">
         <v>249</v>
@@ -27461,16 +27461,16 @@
     </row>
     <row r="177" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B177" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C177" s="16" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D177" s="16" t="s">
         <v>1167</v>
-      </c>
-      <c r="D177" s="16" t="s">
-        <v>1168</v>
       </c>
       <c r="E177" s="16">
         <v>1998</v>
@@ -27491,17 +27491,17 @@
         <v>419</v>
       </c>
       <c r="K177" s="16" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="L177" s="16"/>
       <c r="M177" s="16" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="N177" s="16" t="s">
         <v>249</v>
       </c>
       <c r="O177" s="16" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="P177" s="16" t="s">
         <v>424</v>
@@ -27542,7 +27542,7 @@
         <v>3</v>
       </c>
       <c r="AD177" s="16" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AE177" s="16"/>
       <c r="AF177" s="16">
@@ -27580,10 +27580,10 @@
         <v>179</v>
       </c>
       <c r="AT177" s="12" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AU177" s="16" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AV177" s="16" t="s">
         <v>116</v>
@@ -27592,21 +27592,21 @@
         <v>212</v>
       </c>
       <c r="AX177" s="12" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="178" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B178" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C178" s="16" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D178" s="16" t="s">
         <v>1172</v>
-      </c>
-      <c r="D178" s="16" t="s">
-        <v>1173</v>
       </c>
       <c r="E178" s="16">
         <v>1997</v>
@@ -27627,11 +27627,11 @@
         <v>904</v>
       </c>
       <c r="K178" s="16" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="L178" s="16"/>
       <c r="M178" s="16" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="N178" s="16" t="s">
         <v>249</v>
@@ -27666,7 +27666,7 @@
       </c>
       <c r="Y178" s="16"/>
       <c r="Z178" s="16" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AA178" s="16">
         <v>3</v>
@@ -27678,7 +27678,7 @@
         <v>3</v>
       </c>
       <c r="AD178" s="16" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AE178" s="16"/>
       <c r="AF178" s="16">
@@ -27698,7 +27698,7 @@
       </c>
       <c r="AK178" s="12"/>
       <c r="AL178" s="12" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AM178" s="12" t="s">
         <v>235</v>
@@ -27707,10 +27707,10 @@
         <v>165</v>
       </c>
       <c r="AO178" s="12" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AP178" s="12" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AQ178" s="12" t="s">
         <v>167</v>
@@ -27725,7 +27725,7 @@
         <v>836</v>
       </c>
       <c r="AU178" s="12" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AV178" s="12" t="s">
         <v>202</v>
@@ -27734,7 +27734,7 @@
         <v>211</v>
       </c>
       <c r="AX178" s="12" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
   </sheetData>
@@ -29997,14 +29997,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_vdReijden.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_vdReijden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAA8765-0098-4EF4-ABCC-8105BF5611A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB336F27-44C5-4C17-9ADA-E90BB9E0AE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -2330,7 +2330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5981" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5982" uniqueCount="1261">
   <si>
     <t>SearchID</t>
   </si>
@@ -6111,6 +6111,9 @@
   </si>
   <si>
     <t>Fishing activity with active pingers</t>
+  </si>
+  <si>
+    <t>Questionnaire</t>
   </si>
 </sst>
 </file>
@@ -6604,44 +6607,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AT203" sqref="AT203"/>
+      <selection pane="bottomLeft" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="2.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" customWidth="1"/>
-    <col min="8" max="9" width="2.5703125" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="2.5703125" customWidth="1"/>
+    <col min="7" max="7" width="2.1796875" customWidth="1"/>
+    <col min="8" max="9" width="2.54296875" customWidth="1"/>
+    <col min="10" max="10" width="1.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="2.54296875" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="2.85546875" customWidth="1"/>
-    <col min="15" max="15" width="2.42578125" customWidth="1"/>
-    <col min="16" max="16" width="2.85546875" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
-    <col min="24" max="25" width="32.7109375" customWidth="1"/>
-    <col min="34" max="35" width="17.7109375" customWidth="1"/>
-    <col min="36" max="36" width="18.7109375" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" customWidth="1"/>
-    <col min="40" max="40" width="15.85546875" customWidth="1"/>
-    <col min="41" max="41" width="15.85546875" style="12" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="2.81640625" customWidth="1"/>
+    <col min="15" max="15" width="2.453125" customWidth="1"/>
+    <col min="16" max="16" width="2.81640625" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="24" max="25" width="32.7265625" customWidth="1"/>
+    <col min="34" max="35" width="17.7265625" customWidth="1"/>
+    <col min="36" max="36" width="18.7265625" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="38" max="38" width="17.7265625" customWidth="1"/>
+    <col min="39" max="39" width="14.26953125" customWidth="1"/>
+    <col min="40" max="40" width="15.81640625" customWidth="1"/>
+    <col min="41" max="41" width="15.81640625" style="12" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="47" max="47" width="18.7265625" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
@@ -6707,7 +6710,7 @@
       <c r="AW1" s="20"/>
       <c r="AX1" s="20"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -6859,7 +6862,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -6985,7 +6988,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>252</v>
       </c>
@@ -7060,7 +7063,7 @@
       <c r="AW4" s="12"/>
       <c r="AX4" s="12"/>
     </row>
-    <row r="5" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>257</v>
       </c>
@@ -7179,7 +7182,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>257</v>
       </c>
@@ -7298,7 +7301,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>257</v>
       </c>
@@ -7411,7 +7414,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>257</v>
       </c>
@@ -7524,7 +7527,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>257</v>
       </c>
@@ -7634,7 +7637,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>257</v>
       </c>
@@ -7753,7 +7756,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>263</v>
       </c>
@@ -7806,10 +7809,7 @@
         <v>51</v>
       </c>
       <c r="X11" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y11" s="12" t="s">
-        <v>631</v>
+        <v>69</v>
       </c>
       <c r="Z11" s="12" t="s">
         <v>732</v>
@@ -7872,7 +7872,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>263</v>
       </c>
@@ -7926,9 +7926,11 @@
         <v>51</v>
       </c>
       <c r="X12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y12" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>631</v>
+      </c>
       <c r="Z12" s="12" t="s">
         <v>710</v>
       </c>
@@ -7949,7 +7951,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AG12" s="12" t="s">
-        <v>112</v>
+        <v>1260</v>
       </c>
       <c r="AH12" s="12" t="s">
         <v>120</v>
@@ -7997,7 +7999,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>269</v>
       </c>
@@ -8072,7 +8074,7 @@
       <c r="AW13" s="12"/>
       <c r="AX13" s="12"/>
     </row>
-    <row r="14" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>275</v>
       </c>
@@ -8185,7 +8187,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>275</v>
       </c>
@@ -8295,7 +8297,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>275</v>
       </c>
@@ -8416,7 +8418,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>281</v>
       </c>
@@ -8535,7 +8537,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>281</v>
       </c>
@@ -8659,7 +8661,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>287</v>
       </c>
@@ -8787,7 +8789,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>287</v>
       </c>
@@ -8918,7 +8920,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>293</v>
       </c>
@@ -8971,7 +8973,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>300</v>
       </c>
@@ -9090,7 +9092,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="23" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>305</v>
       </c>
@@ -9212,7 +9214,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>311</v>
       </c>
@@ -9319,7 +9321,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>311</v>
       </c>
@@ -9435,7 +9437,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>311</v>
       </c>
@@ -9548,7 +9550,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>317</v>
       </c>
@@ -9673,7 +9675,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>317</v>
       </c>
@@ -9804,7 +9806,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>317</v>
       </c>
@@ -9926,7 +9928,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="30" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>317</v>
       </c>
@@ -10054,7 +10056,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>317</v>
       </c>
@@ -10179,7 +10181,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>317</v>
       </c>
@@ -10310,7 +10312,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>324</v>
       </c>
@@ -10430,7 +10432,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>329</v>
       </c>
@@ -10486,7 +10488,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>335</v>
       </c>
@@ -10617,7 +10619,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>335</v>
       </c>
@@ -10748,7 +10750,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>335</v>
       </c>
@@ -10879,7 +10881,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>340</v>
       </c>
@@ -11007,7 +11009,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>346</v>
       </c>
@@ -11051,7 +11053,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>351</v>
       </c>
@@ -11176,7 +11178,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>358</v>
       </c>
@@ -11301,7 +11303,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>358</v>
       </c>
@@ -11426,7 +11428,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>358</v>
       </c>
@@ -11551,7 +11553,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>363</v>
       </c>
@@ -11679,7 +11681,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>369</v>
       </c>
@@ -11810,7 +11812,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>376</v>
       </c>
@@ -11866,7 +11868,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>382</v>
       </c>
@@ -12003,7 +12005,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>388</v>
       </c>
@@ -12059,7 +12061,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>395</v>
       </c>
@@ -12187,7 +12189,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>401</v>
       </c>
@@ -12315,7 +12317,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>407</v>
       </c>
@@ -12446,7 +12448,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>413</v>
       </c>
@@ -12559,7 +12561,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>418</v>
       </c>
@@ -12684,7 +12686,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="54" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>425</v>
       </c>
@@ -12800,7 +12802,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="55" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>425</v>
       </c>
@@ -12928,7 +12930,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="56" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>425</v>
       </c>
@@ -13059,7 +13061,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="57" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>425</v>
       </c>
@@ -13190,7 +13192,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>431</v>
       </c>
@@ -13241,7 +13243,7 @@
       </c>
       <c r="AX58" s="12"/>
     </row>
-    <row r="59" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>437</v>
       </c>
@@ -13366,7 +13368,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="60" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>437</v>
       </c>
@@ -13488,7 +13490,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="61" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>437</v>
       </c>
@@ -13610,7 +13612,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>443</v>
       </c>
@@ -13741,7 +13743,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="63" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>449</v>
       </c>
@@ -13866,7 +13868,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="64" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>449</v>
       </c>
@@ -13991,7 +13993,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="65" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>455</v>
       </c>
@@ -14116,7 +14118,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="66" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>455</v>
       </c>
@@ -14238,7 +14240,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>455</v>
       </c>
@@ -14366,7 +14368,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="68" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>460</v>
       </c>
@@ -14491,7 +14493,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="69" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
         <v>460</v>
       </c>
@@ -14616,7 +14618,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>460</v>
       </c>
@@ -14741,7 +14743,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="71" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
         <v>465</v>
       </c>
@@ -14869,7 +14871,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="72" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
         <v>465</v>
       </c>
@@ -14997,7 +14999,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>465</v>
       </c>
@@ -15128,7 +15130,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="74" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>471</v>
       </c>
@@ -15244,7 +15246,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>471</v>
       </c>
@@ -15366,7 +15368,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="76" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="16" t="s">
         <v>477</v>
       </c>
@@ -15494,7 +15496,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="77" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="s">
         <v>477</v>
       </c>
@@ -15622,7 +15624,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="78" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>477</v>
       </c>
@@ -15750,7 +15752,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>477</v>
       </c>
@@ -15878,7 +15880,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="80" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
         <v>483</v>
       </c>
@@ -16012,7 +16014,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="81" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
         <v>483</v>
       </c>
@@ -16146,7 +16148,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="82" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>488</v>
       </c>
@@ -16277,7 +16279,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="83" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
         <v>488</v>
       </c>
@@ -16411,7 +16413,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="84" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
         <v>493</v>
       </c>
@@ -16527,7 +16529,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="85" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
         <v>493</v>
       </c>
@@ -16643,7 +16645,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>493</v>
       </c>
@@ -16759,7 +16761,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>499</v>
       </c>
@@ -16881,7 +16883,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>504</v>
       </c>
@@ -17003,7 +17005,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="89" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
         <v>509</v>
       </c>
@@ -17134,7 +17136,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>509</v>
       </c>
@@ -17262,7 +17264,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>514</v>
       </c>
@@ -17384,7 +17386,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>519</v>
       </c>
@@ -17509,7 +17511,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>525</v>
       </c>
@@ -17625,7 +17627,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="94" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
         <v>531</v>
       </c>
@@ -17753,7 +17755,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="95" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
         <v>531</v>
       </c>
@@ -17878,7 +17880,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>538</v>
       </c>
@@ -18006,7 +18008,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>544</v>
       </c>
@@ -18134,7 +18136,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="98" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="16" t="s">
         <v>549</v>
       </c>
@@ -18256,7 +18258,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>549</v>
       </c>
@@ -18378,7 +18380,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="100" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
         <v>554</v>
       </c>
@@ -18494,7 +18496,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="101" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
         <v>554</v>
       </c>
@@ -18613,7 +18615,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="102" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
         <v>554</v>
       </c>
@@ -18732,7 +18734,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>559</v>
       </c>
@@ -18860,7 +18862,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="104" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
         <v>565</v>
       </c>
@@ -18982,7 +18984,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>565</v>
       </c>
@@ -19105,7 +19107,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="106" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
         <v>565</v>
       </c>
@@ -19224,7 +19226,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="107" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="12" t="s">
         <v>570</v>
       </c>
@@ -19352,7 +19354,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="108" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="s">
         <v>570</v>
       </c>
@@ -19480,7 +19482,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="109" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
         <v>570</v>
       </c>
@@ -19605,7 +19607,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>570</v>
       </c>
@@ -19734,7 +19736,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="111" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="12" t="s">
         <v>575</v>
       </c>
@@ -19847,7 +19849,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="112" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="12" t="s">
         <v>575</v>
       </c>
@@ -19963,7 +19965,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="113" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="12" t="s">
         <v>575</v>
       </c>
@@ -20079,7 +20081,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="114" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="12" t="s">
         <v>575</v>
       </c>
@@ -20195,7 +20197,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="115" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="12" t="s">
         <v>581</v>
       </c>
@@ -20314,7 +20316,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="116" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="12" t="s">
         <v>581</v>
       </c>
@@ -20433,7 +20435,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="117" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="12" t="s">
         <v>581</v>
       </c>
@@ -20552,7 +20554,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="118" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="12" t="s">
         <v>581</v>
       </c>
@@ -20671,7 +20673,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="119" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="12" t="s">
         <v>581</v>
       </c>
@@ -20790,7 +20792,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="120" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="12" t="s">
         <v>581</v>
       </c>
@@ -20909,7 +20911,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>587</v>
       </c>
@@ -20964,7 +20966,7 @@
       <c r="AT121" s="12"/>
       <c r="AX121" s="12"/>
     </row>
-    <row r="122" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="12" t="s">
         <v>996</v>
       </c>
@@ -21092,7 +21094,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="123" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="12" t="s">
         <v>990</v>
       </c>
@@ -21217,7 +21219,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="124" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="12" t="s">
         <v>985</v>
       </c>
@@ -21342,7 +21344,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="125" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="12" t="s">
         <v>979</v>
       </c>
@@ -21464,7 +21466,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="126" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="12" t="s">
         <v>979</v>
       </c>
@@ -21586,7 +21588,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="127" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="12" t="s">
         <v>979</v>
       </c>
@@ -21708,7 +21710,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="128" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="12" t="s">
         <v>973</v>
       </c>
@@ -21833,7 +21835,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="129" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="12" t="s">
         <v>973</v>
       </c>
@@ -21958,7 +21960,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="130" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="12" t="s">
         <v>967</v>
       </c>
@@ -22014,7 +22016,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="16" t="s">
         <v>962</v>
       </c>
@@ -22142,7 +22144,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="132" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="16" t="s">
         <v>962</v>
       </c>
@@ -22270,7 +22272,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="133" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="12" t="s">
         <v>962</v>
       </c>
@@ -22398,7 +22400,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="134" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="12" t="s">
         <v>962</v>
       </c>
@@ -22526,7 +22528,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="135" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="12" t="s">
         <v>957</v>
       </c>
@@ -22648,7 +22650,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="136" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="12" t="s">
         <v>957</v>
       </c>
@@ -22770,7 +22772,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="137" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="12" t="s">
         <v>952</v>
       </c>
@@ -22892,7 +22894,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="138" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="12" t="s">
         <v>952</v>
       </c>
@@ -23017,7 +23019,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="139" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="12" t="s">
         <v>947</v>
       </c>
@@ -23067,7 +23069,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="12" t="s">
         <v>1041</v>
       </c>
@@ -23198,7 +23200,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A141" s="12" t="s">
         <v>1041</v>
       </c>
@@ -23330,7 +23332,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
         <v>1046</v>
       </c>
@@ -23402,7 +23404,7 @@
       <c r="AW142" s="12"/>
       <c r="AX142" s="12"/>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A143" s="12" t="s">
         <v>1052</v>
       </c>
@@ -23474,7 +23476,7 @@
       <c r="AW143" s="12"/>
       <c r="AX143" s="12"/>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A144" s="12" t="s">
         <v>1058</v>
       </c>
@@ -23546,7 +23548,7 @@
       <c r="AW144" s="12"/>
       <c r="AX144" s="12"/>
     </row>
-    <row r="145" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="14" t="s">
         <v>1063</v>
       </c>
@@ -23664,7 +23666,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="146" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="14" t="s">
         <v>1068</v>
       </c>
@@ -23789,7 +23791,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="147" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="14" t="s">
         <v>1068</v>
       </c>
@@ -23914,7 +23916,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A148" s="12" t="s">
         <v>1073</v>
       </c>
@@ -23988,7 +23990,7 @@
       <c r="AW148" s="12"/>
       <c r="AX148" s="16"/>
     </row>
-    <row r="149" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="12" t="s">
         <v>1079</v>
       </c>
@@ -24119,7 +24121,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="150" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="12" t="s">
         <v>1079</v>
       </c>
@@ -24250,7 +24252,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A151" s="12" t="s">
         <v>1079</v>
       </c>
@@ -24382,7 +24384,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A152" s="12" t="s">
         <v>1086</v>
       </c>
@@ -24522,7 +24524,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="153" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="16" t="s">
         <v>1123</v>
       </c>
@@ -24644,7 +24646,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="154" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="16" t="s">
         <v>1123</v>
       </c>
@@ -24766,7 +24768,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="155" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="16" t="s">
         <v>1123</v>
       </c>
@@ -24888,7 +24890,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="156" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="16" t="s">
         <v>1123</v>
       </c>
@@ -25010,7 +25012,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="157" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="16" t="s">
         <v>1123</v>
       </c>
@@ -25132,7 +25134,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="158" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="16" t="s">
         <v>1123</v>
       </c>
@@ -25254,7 +25256,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="159" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="16" t="s">
         <v>1123</v>
       </c>
@@ -25376,7 +25378,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A160" s="16" t="s">
         <v>1123</v>
       </c>
@@ -25509,7 +25511,7 @@
       </c>
       <c r="AY160" s="16"/>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A161" s="16" t="s">
         <v>1128</v>
       </c>
@@ -25595,7 +25597,7 @@
       <c r="AW161" s="16"/>
       <c r="AX161" s="16"/>
     </row>
-    <row r="162" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="16" t="s">
         <v>1134</v>
       </c>
@@ -25726,7 +25728,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="163" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="16" t="s">
         <v>1134</v>
       </c>
@@ -25857,7 +25859,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A164" s="16" t="s">
         <v>1134</v>
       </c>
@@ -25991,7 +25993,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="165" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="16" t="s">
         <v>1134</v>
       </c>
@@ -26116,7 +26118,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="166" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="16" t="s">
         <v>1139</v>
       </c>
@@ -26253,7 +26255,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A167" s="16" t="s">
         <v>1139</v>
       </c>
@@ -26390,7 +26392,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A168" s="16" t="s">
         <v>1144</v>
       </c>
@@ -26477,7 +26479,7 @@
       <c r="AW168" s="12"/>
       <c r="AX168" s="16"/>
     </row>
-    <row r="169" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="16" t="s">
         <v>1150</v>
       </c>
@@ -26605,7 +26607,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="170" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="16" t="s">
         <v>1150</v>
       </c>
@@ -26733,7 +26735,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="171" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="16" t="s">
         <v>1150</v>
       </c>
@@ -26861,7 +26863,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="172" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="16" t="s">
         <v>1150</v>
       </c>
@@ -26989,7 +26991,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A173" s="16" t="s">
         <v>1150</v>
       </c>
@@ -27125,7 +27127,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="174" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="16" t="s">
         <v>1155</v>
       </c>
@@ -27244,7 +27246,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="175" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A175" s="16" t="s">
         <v>1155</v>
       </c>
@@ -27374,7 +27376,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="176" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A176" s="16" t="s">
         <v>1160</v>
       </c>
@@ -27459,7 +27461,7 @@
       <c r="AW176" s="12"/>
       <c r="AX176" s="16"/>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A177" s="16" t="s">
         <v>1165</v>
       </c>
@@ -27595,7 +27597,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A178" s="16" t="s">
         <v>1170</v>
       </c>
@@ -27764,7 +27766,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="18">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="19">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Validation!$AM$5:$AM$11</xm:f>
@@ -27843,12 +27845,6 @@
           </x14:formula1>
           <xm:sqref>V21:V1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000011000000}">
-          <x14:formula1>
-            <xm:f>Validation!$X$3:$X$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>X21:X1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000012000000}">
           <x14:formula1>
             <xm:f>Validation!$S$3:$S$16</xm:f>
@@ -27873,6 +27869,18 @@
           </x14:formula1>
           <xm:sqref>AC21:AC1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3016B4F8-0FB3-4D93-B5FD-71A46550DF4C}">
+          <x14:formula1>
+            <xm:f>Validation!$AG$3:$AG$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>AG12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000011000000}">
+          <x14:formula1>
+            <xm:f>Validation!$X$3:$X$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>X21:X178 X180:X1048576 X11</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -27883,21 +27891,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX38"/>
   <sheetViews>
-    <sheetView topLeftCell="AB10" workbookViewId="0">
-      <selection activeCell="AP19" sqref="AP12:AP19"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="33" max="33" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
@@ -27962,7 +27970,7 @@
       <c r="AV1" s="9"/>
       <c r="AW1" s="9"/>
     </row>
-    <row r="2" spans="1:49" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -28111,7 +28119,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -28168,7 +28176,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -28225,7 +28233,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -28281,7 +28289,7 @@
       </c>
       <c r="AW5" s="8"/>
     </row>
-    <row r="6" spans="1:49" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -28326,7 +28334,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -28368,7 +28376,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -28406,7 +28414,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -28441,7 +28449,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -28460,6 +28468,9 @@
       <c r="X10" t="s">
         <v>74</v>
       </c>
+      <c r="AG10" s="16" t="s">
+        <v>1260</v>
+      </c>
       <c r="AH10" t="s">
         <v>122</v>
       </c>
@@ -28473,7 +28484,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -28508,7 +28519,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -28540,7 +28551,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -28575,7 +28586,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -28604,7 +28615,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -28633,7 +28644,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -28653,7 +28664,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>165</v>
       </c>
@@ -28661,22 +28672,22 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP19" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>118</v>
       </c>
@@ -28711,7 +28722,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>132</v>
       </c>
@@ -28737,7 +28748,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>140</v>
       </c>
@@ -28760,7 +28771,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>147</v>
       </c>
@@ -28771,7 +28782,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>150</v>
       </c>
@@ -28782,7 +28793,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>152</v>
       </c>
@@ -28790,12 +28801,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP29" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>154</v>
       </c>
@@ -28818,7 +28829,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>132</v>
       </c>
@@ -28844,7 +28855,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>156</v>
       </c>
@@ -28870,7 +28881,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>158</v>
       </c>
@@ -28890,7 +28901,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>160</v>
       </c>
@@ -28905,7 +28916,7 @@
       </c>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>116</v>
       </c>
@@ -28919,7 +28930,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AT36" t="s">
         <v>214</v>
       </c>
@@ -28927,10 +28938,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -28958,37 +28969,37 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" customWidth="1"/>
+    <col min="20" max="20" width="19.26953125" customWidth="1"/>
+    <col min="21" max="21" width="17.7265625" customWidth="1"/>
+    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
-    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.26953125" customWidth="1"/>
+    <col min="31" max="31" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
@@ -29035,7 +29046,7 @@
       <c r="AF1" s="20"/>
       <c r="AG1" s="20"/>
     </row>
-    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -29136,7 +29147,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -29198,7 +29209,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -29248,7 +29259,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -29301,7 +29312,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -29342,7 +29353,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -29386,7 +29397,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -29421,7 +29432,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -29456,7 +29467,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -29488,7 +29499,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -29517,7 +29528,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -29549,7 +29560,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -29578,7 +29589,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -29601,7 +29612,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -29627,7 +29638,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -29644,7 +29655,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>122</v>
       </c>
@@ -29655,7 +29666,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>123</v>
       </c>
@@ -29669,7 +29680,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>155</v>
       </c>
@@ -29683,7 +29694,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>159</v>
       </c>
@@ -29694,7 +29705,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>231</v>
       </c>
@@ -29708,7 +29719,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>116</v>
       </c>
@@ -29719,7 +29730,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>130</v>
       </c>
@@ -29730,7 +29741,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>144</v>
       </c>
@@ -29738,7 +29749,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>149</v>
       </c>
@@ -29746,7 +29757,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>151</v>
       </c>
@@ -29754,7 +29765,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>153</v>
       </c>
@@ -29768,7 +29779,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>125</v>
       </c>
@@ -29779,7 +29790,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>145</v>
       </c>
@@ -29790,7 +29801,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>126</v>
       </c>
@@ -29801,7 +29812,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>146</v>
       </c>
@@ -29809,7 +29820,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>131</v>
       </c>
@@ -29817,12 +29828,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z33" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>153</v>
       </c>
@@ -29842,12 +29853,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29965,15 +29973,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29995,16 +30013,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_vdReijden.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_vdReijden.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/SEAwise GitHub/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0306A68-4E8C-47EE-B297-9A19847CAC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F0306A68-4E8C-47EE-B297-9A19847CAC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{017043E8-C8CF-4D80-AB1B-D60B3E9FE4F2}"/>
   <bookViews>
-    <workbookView xWindow="-4650" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -6311,7 +6311,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Validation"/>
@@ -6324,17 +6324,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="DataExtraction"/>
       <sheetName val="Validation"/>
-      <sheetName val="Drop-down overview"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6603,45 +6599,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AX182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AW94" sqref="AW94"/>
+      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="2.1796875" customWidth="1"/>
-    <col min="8" max="9" width="2.54296875" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="2.54296875" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" customWidth="1"/>
+    <col min="8" max="9" width="2.5703125" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="2.5703125" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="2.81640625" customWidth="1"/>
-    <col min="15" max="15" width="2.453125" customWidth="1"/>
-    <col min="16" max="16" width="2.81640625" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" customWidth="1"/>
-    <col min="19" max="19" width="18.1796875" customWidth="1"/>
-    <col min="24" max="25" width="32.7265625" customWidth="1"/>
-    <col min="34" max="35" width="17.7265625" customWidth="1"/>
-    <col min="36" max="36" width="18.7265625" customWidth="1"/>
-    <col min="37" max="37" width="19.1796875" customWidth="1"/>
-    <col min="38" max="38" width="17.7265625" customWidth="1"/>
-    <col min="39" max="39" width="14.26953125" customWidth="1"/>
-    <col min="40" max="41" width="15.81640625" customWidth="1"/>
-    <col min="42" max="42" width="15.453125" customWidth="1"/>
-    <col min="46" max="46" width="15.1796875" customWidth="1"/>
-    <col min="47" max="47" width="18.7265625" customWidth="1"/>
+    <col min="14" max="14" width="2.85546875" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
+    <col min="24" max="25" width="32.7109375" customWidth="1"/>
+    <col min="34" max="35" width="17.7109375" customWidth="1"/>
+    <col min="36" max="36" width="18.7109375" customWidth="1"/>
+    <col min="37" max="37" width="19.140625" customWidth="1"/>
+    <col min="38" max="38" width="17.7109375" customWidth="1"/>
+    <col min="39" max="39" width="14.28515625" customWidth="1"/>
+    <col min="40" max="41" width="15.85546875" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" customWidth="1"/>
+    <col min="47" max="47" width="18.7109375" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
@@ -6707,7 +6704,7 @@
       <c r="AW1" s="11"/>
       <c r="AX1" s="11"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -6859,7 +6856,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -6978,7 +6975,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>252</v>
       </c>
@@ -7022,7 +7019,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>257</v>
       </c>
@@ -7141,7 +7138,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>257</v>
       </c>
@@ -7260,7 +7257,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>257</v>
       </c>
@@ -7373,7 +7370,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>257</v>
       </c>
@@ -7486,7 +7483,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -7596,7 +7593,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>257</v>
       </c>
@@ -7706,7 +7703,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>263</v>
       </c>
@@ -7822,7 +7819,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>263</v>
       </c>
@@ -7944,7 +7941,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>269</v>
       </c>
@@ -7988,7 +7985,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>275</v>
       </c>
@@ -8101,7 +8098,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>275</v>
       </c>
@@ -8211,7 +8208,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>275</v>
       </c>
@@ -8324,7 +8321,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>281</v>
       </c>
@@ -8443,7 +8440,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>281</v>
       </c>
@@ -8562,7 +8559,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>287</v>
       </c>
@@ -8690,7 +8687,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>287</v>
       </c>
@@ -8821,7 +8818,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -8874,7 +8871,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>300</v>
       </c>
@@ -8993,7 +8990,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="23" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>305</v>
       </c>
@@ -9115,7 +9112,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>311</v>
       </c>
@@ -9222,7 +9219,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>311</v>
       </c>
@@ -9338,7 +9335,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>311</v>
       </c>
@@ -9451,7 +9448,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>317</v>
       </c>
@@ -9576,7 +9573,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>317</v>
       </c>
@@ -9707,7 +9704,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>317</v>
       </c>
@@ -9829,7 +9826,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>317</v>
       </c>
@@ -9957,7 +9954,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>317</v>
       </c>
@@ -10082,7 +10079,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>317</v>
       </c>
@@ -10213,7 +10210,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>324</v>
       </c>
@@ -10329,7 +10326,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>329</v>
       </c>
@@ -10385,7 +10382,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>335</v>
       </c>
@@ -10516,7 +10513,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>335</v>
       </c>
@@ -10647,7 +10644,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>335</v>
       </c>
@@ -10778,7 +10775,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>340</v>
       </c>
@@ -10906,7 +10903,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>346</v>
       </c>
@@ -10950,7 +10947,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>351</v>
       </c>
@@ -11075,7 +11072,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>358</v>
       </c>
@@ -11200,7 +11197,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>358</v>
       </c>
@@ -11325,7 +11322,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>358</v>
       </c>
@@ -11450,7 +11447,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>363</v>
       </c>
@@ -11578,7 +11575,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>369</v>
       </c>
@@ -11709,7 +11706,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>376</v>
       </c>
@@ -11765,7 +11762,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>382</v>
       </c>
@@ -11902,7 +11899,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>388</v>
       </c>
@@ -11958,7 +11955,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>395</v>
       </c>
@@ -12086,7 +12083,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>401</v>
       </c>
@@ -12214,7 +12211,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>407</v>
       </c>
@@ -12345,7 +12342,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>413</v>
       </c>
@@ -12458,7 +12455,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>418</v>
       </c>
@@ -12583,7 +12580,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>425</v>
       </c>
@@ -12699,7 +12696,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>425</v>
       </c>
@@ -12827,7 +12824,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>425</v>
       </c>
@@ -12958,7 +12955,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>425</v>
       </c>
@@ -13089,7 +13086,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>431</v>
       </c>
@@ -13139,7 +13136,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>437</v>
       </c>
@@ -13192,7 +13189,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>443</v>
       </c>
@@ -13323,7 +13320,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>449</v>
       </c>
@@ -13448,7 +13445,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>449</v>
       </c>
@@ -13573,7 +13570,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>455</v>
       </c>
@@ -13698,7 +13695,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>455</v>
       </c>
@@ -13820,7 +13817,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>455</v>
       </c>
@@ -13948,7 +13945,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>460</v>
       </c>
@@ -14073,7 +14070,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>460</v>
       </c>
@@ -14198,7 +14195,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>460</v>
       </c>
@@ -14323,7 +14320,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>465</v>
       </c>
@@ -14451,7 +14448,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>465</v>
       </c>
@@ -14579,7 +14576,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>465</v>
       </c>
@@ -14710,7 +14707,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>471</v>
       </c>
@@ -14826,7 +14823,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>471</v>
       </c>
@@ -14948,7 +14945,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>477</v>
       </c>
@@ -15076,7 +15073,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>477</v>
       </c>
@@ -15204,7 +15201,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>477</v>
       </c>
@@ -15332,7 +15329,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>477</v>
       </c>
@@ -15460,7 +15457,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>483</v>
       </c>
@@ -15594,7 +15591,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>483</v>
       </c>
@@ -15728,7 +15725,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>488</v>
       </c>
@@ -15859,7 +15856,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>493</v>
       </c>
@@ -15975,7 +15972,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>493</v>
       </c>
@@ -16091,7 +16088,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>493</v>
       </c>
@@ -16207,7 +16204,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>499</v>
       </c>
@@ -16329,7 +16326,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>504</v>
       </c>
@@ -16451,7 +16448,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>509</v>
       </c>
@@ -16582,7 +16579,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>509</v>
       </c>
@@ -16710,7 +16707,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>514</v>
       </c>
@@ -16832,7 +16829,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>519</v>
       </c>
@@ -16957,7 +16954,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>525</v>
       </c>
@@ -17079,7 +17076,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>525</v>
       </c>
@@ -17201,7 +17198,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>525</v>
       </c>
@@ -17323,7 +17320,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>525</v>
       </c>
@@ -17445,7 +17442,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>531</v>
       </c>
@@ -17576,7 +17573,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>531</v>
       </c>
@@ -17707,7 +17704,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>538</v>
       </c>
@@ -17835,7 +17832,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>544</v>
       </c>
@@ -17963,7 +17960,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>549</v>
       </c>
@@ -18085,7 +18082,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>549</v>
       </c>
@@ -18207,7 +18204,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="100" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:50" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>554</v>
       </c>
@@ -18323,7 +18320,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="101" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:50" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>554</v>
       </c>
@@ -18442,7 +18439,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="102" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:50" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>554</v>
       </c>
@@ -18561,7 +18558,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>559</v>
       </c>
@@ -18689,7 +18686,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>565</v>
       </c>
@@ -18811,7 +18808,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>565</v>
       </c>
@@ -18933,7 +18930,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>565</v>
       </c>
@@ -19052,7 +19049,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>570</v>
       </c>
@@ -19180,7 +19177,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>570</v>
       </c>
@@ -19308,7 +19305,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>570</v>
       </c>
@@ -19433,7 +19430,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>570</v>
       </c>
@@ -19561,7 +19558,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>575</v>
       </c>
@@ -19674,7 +19671,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>575</v>
       </c>
@@ -19790,7 +19787,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>575</v>
       </c>
@@ -19906,7 +19903,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>575</v>
       </c>
@@ -20022,7 +20019,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>581</v>
       </c>
@@ -20141,7 +20138,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>581</v>
       </c>
@@ -20260,7 +20257,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>581</v>
       </c>
@@ -20379,7 +20376,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>581</v>
       </c>
@@ -20498,7 +20495,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>581</v>
       </c>
@@ -20617,7 +20614,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>581</v>
       </c>
@@ -20736,7 +20733,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>587</v>
       </c>
@@ -20789,7 +20786,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>985</v>
       </c>
@@ -20917,7 +20914,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>979</v>
       </c>
@@ -21042,7 +21039,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>974</v>
       </c>
@@ -21167,7 +21164,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>968</v>
       </c>
@@ -21289,7 +21286,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>968</v>
       </c>
@@ -21411,7 +21408,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>968</v>
       </c>
@@ -21533,7 +21530,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>962</v>
       </c>
@@ -21658,7 +21655,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>962</v>
       </c>
@@ -21783,7 +21780,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>962</v>
       </c>
@@ -21908,7 +21905,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>962</v>
       </c>
@@ -22033,7 +22030,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>956</v>
       </c>
@@ -22089,7 +22086,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>951</v>
       </c>
@@ -22217,7 +22214,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>951</v>
       </c>
@@ -22345,7 +22342,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>951</v>
       </c>
@@ -22473,7 +22470,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>951</v>
       </c>
@@ -22601,7 +22598,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>946</v>
       </c>
@@ -22723,7 +22720,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>946</v>
       </c>
@@ -22845,7 +22842,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>941</v>
       </c>
@@ -22967,7 +22964,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>941</v>
       </c>
@@ -23092,7 +23089,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>936</v>
       </c>
@@ -23142,7 +23139,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1030</v>
       </c>
@@ -23273,7 +23270,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1030</v>
       </c>
@@ -23395,7 +23392,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1035</v>
       </c>
@@ -23448,7 +23445,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1041</v>
       </c>
@@ -23501,7 +23498,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1047</v>
       </c>
@@ -23554,7 +23551,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1052</v>
       </c>
@@ -23664,7 +23661,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1057</v>
       </c>
@@ -23789,7 +23786,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1057</v>
       </c>
@@ -23914,7 +23911,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1062</v>
       </c>
@@ -23970,7 +23967,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1068</v>
       </c>
@@ -24101,7 +24098,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1068</v>
       </c>
@@ -24232,7 +24229,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1068</v>
       </c>
@@ -24357,7 +24354,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1075</v>
       </c>
@@ -24413,7 +24410,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1106</v>
       </c>
@@ -24535,7 +24532,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1106</v>
       </c>
@@ -24657,7 +24654,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1106</v>
       </c>
@@ -24779,7 +24776,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1106</v>
       </c>
@@ -24901,7 +24898,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1106</v>
       </c>
@@ -25023,7 +25020,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1106</v>
       </c>
@@ -25145,7 +25142,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1106</v>
       </c>
@@ -25267,7 +25264,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1106</v>
       </c>
@@ -25389,7 +25386,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="163" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1106</v>
       </c>
@@ -25511,7 +25508,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1106</v>
       </c>
@@ -25633,7 +25630,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="165" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1111</v>
       </c>
@@ -25686,7 +25683,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="166" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1117</v>
       </c>
@@ -25817,7 +25814,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1117</v>
       </c>
@@ -25948,7 +25945,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1117</v>
       </c>
@@ -26073,7 +26070,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="169" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1117</v>
       </c>
@@ -26198,7 +26195,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1122</v>
       </c>
@@ -26335,7 +26332,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1122</v>
       </c>
@@ -26466,7 +26463,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1127</v>
       </c>
@@ -26522,7 +26519,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1133</v>
       </c>
@@ -26650,7 +26647,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="174" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1133</v>
       </c>
@@ -26778,7 +26775,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="175" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1133</v>
       </c>
@@ -26906,7 +26903,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="176" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1133</v>
       </c>
@@ -27034,7 +27031,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1133</v>
       </c>
@@ -27162,7 +27159,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1138</v>
       </c>
@@ -27281,7 +27278,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1138</v>
       </c>
@@ -27400,7 +27397,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="180" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1143</v>
       </c>
@@ -27453,7 +27450,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="181" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1148</v>
       </c>
@@ -27581,7 +27578,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="182" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1153</v>
       </c>
@@ -27719,6 +27716,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AX182" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="25">
+      <filters>
+        <filter val="NA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AX1"/>
@@ -27874,17 +27878,17 @@
       <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="32.1796875" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7265625" customWidth="1"/>
-    <col min="33" max="33" width="26.26953125" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="33" max="33" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
@@ -27949,7 +27953,7 @@
       <c r="AV1" s="8"/>
       <c r="AW1" s="8"/>
     </row>
-    <row r="2" spans="1:49" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -28098,7 +28102,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -28155,7 +28159,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -28212,7 +28216,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -28268,7 +28272,7 @@
       </c>
       <c r="AW5" s="7"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" ht="30" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -28313,7 +28317,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -28355,7 +28359,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -28393,7 +28397,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -28428,7 +28432,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -28463,7 +28467,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -28498,7 +28502,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -28530,7 +28534,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -28565,7 +28569,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -28594,7 +28598,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -28623,7 +28627,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -28643,7 +28647,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AM17" t="s">
         <v>165</v>
       </c>
@@ -28651,22 +28655,22 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AP18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AP19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH22" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH23" s="6" t="s">
         <v>118</v>
       </c>
@@ -28701,7 +28705,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH24" t="s">
         <v>132</v>
       </c>
@@ -28727,7 +28731,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH25" t="s">
         <v>140</v>
       </c>
@@ -28750,7 +28754,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AJ26" t="s">
         <v>147</v>
       </c>
@@ -28761,7 +28765,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AJ27" t="s">
         <v>150</v>
       </c>
@@ -28772,7 +28776,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AJ28" t="s">
         <v>152</v>
       </c>
@@ -28780,12 +28784,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AP29" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH30" s="5" t="s">
         <v>154</v>
       </c>
@@ -28808,7 +28812,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH31" s="6" t="s">
         <v>132</v>
       </c>
@@ -28834,7 +28838,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH32" t="s">
         <v>156</v>
       </c>
@@ -28860,7 +28864,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH33" t="s">
         <v>158</v>
       </c>
@@ -28880,7 +28884,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AI34" t="s">
         <v>160</v>
       </c>
@@ -28894,7 +28898,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AI35" t="s">
         <v>116</v>
       </c>
@@ -28908,7 +28912,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AT36" t="s">
         <v>214</v>
       </c>
@@ -28916,10 +28920,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -28947,37 +28951,37 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.81640625" customWidth="1"/>
-    <col min="19" max="19" width="17.7265625" customWidth="1"/>
-    <col min="20" max="20" width="19.26953125" customWidth="1"/>
-    <col min="21" max="21" width="17.7265625" customWidth="1"/>
-    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.453125" customWidth="1"/>
-    <col min="30" max="30" width="15.26953125" customWidth="1"/>
-    <col min="31" max="31" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7265625" customWidth="1"/>
-    <col min="33" max="33" width="12.54296875" customWidth="1"/>
+    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" customWidth="1"/>
+    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
@@ -29024,7 +29028,7 @@
       <c r="AF1" s="11"/>
       <c r="AG1" s="11"/>
     </row>
-    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -29125,7 +29129,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -29187,7 +29191,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -29237,7 +29241,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -29290,7 +29294,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -29331,7 +29335,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -29375,7 +29379,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -29410,7 +29414,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -29445,7 +29449,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -29477,7 +29481,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -29506,7 +29510,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -29538,7 +29542,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -29567,7 +29571,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -29590,7 +29594,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -29616,7 +29620,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -29633,7 +29637,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
         <v>122</v>
       </c>
@@ -29644,7 +29648,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
         <v>123</v>
       </c>
@@ -29658,7 +29662,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>155</v>
       </c>
@@ -29672,7 +29676,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S20" t="s">
         <v>159</v>
       </c>
@@ -29683,7 +29687,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S21" t="s">
         <v>231</v>
       </c>
@@ -29697,7 +29701,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>116</v>
       </c>
@@ -29708,7 +29712,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>130</v>
       </c>
@@ -29719,7 +29723,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>144</v>
       </c>
@@ -29727,7 +29731,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>149</v>
       </c>
@@ -29735,7 +29739,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>151</v>
       </c>
@@ -29743,7 +29747,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>153</v>
       </c>
@@ -29757,7 +29761,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
         <v>125</v>
       </c>
@@ -29768,7 +29772,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>145</v>
       </c>
@@ -29779,7 +29783,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
         <v>126</v>
       </c>
@@ -29790,7 +29794,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>146</v>
       </c>
@@ -29798,7 +29802,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
         <v>131</v>
       </c>
@@ -29806,12 +29810,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z33" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z34" t="s">
         <v>153</v>
       </c>
@@ -29831,6 +29835,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -29944,22 +29963,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C7BCA69-4CF2-4262-9455-76552C6346D5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29973,27 +30000,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>